--- a/work/preprocess.xlsx
+++ b/work/preprocess.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="Output" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="4" name="solver_adj" vbProcedure="false">'I comp'!$F$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="solver_adj" vbProcedure="false">'I comp'!$D$98:$D$105</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_cvg" vbProcedure="false">0.0001</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_drv" vbProcedure="false">1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_eng" vbProcedure="false">1</definedName>
@@ -30,7 +30,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="solver_nod" vbProcedure="false">2147483647</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_num" vbProcedure="false">0</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_nwt" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="solver_opt" vbProcedure="false">'I comp'!$B$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="solver_opt" vbProcedure="false">'I comp'!$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_pre" vbProcedure="false">0.000001</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_rbv" vbProcedure="false">1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="solver_rlx" vbProcedure="false">2</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="145">
   <si>
     <t xml:space="preserve">obs</t>
   </si>
@@ -458,10 +458,31 @@
     <t xml:space="preserve">r criterion</t>
   </si>
   <si>
-    <t xml:space="preserve">(to minimize)</t>
+    <t xml:space="preserve">c criterion</t>
   </si>
   <si>
-    <t xml:space="preserve">c criterion</t>
+    <t xml:space="preserve">To compute Ix, slover has to be run,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimizing “x criterion” by changing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">values of Ix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: the slover tends to stop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prematurely, leawing the criterion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt; 0.  In that case, minimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has to be additionally done for those</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cells in Ix for which G(Ix) is &gt;&gt; 0</t>
   </si>
   <si>
     <t xml:space="preserve">Yr</t>
@@ -524,7 +545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -548,9 +569,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,13 +588,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -575,22 +605,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D93" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I105" activeCellId="0" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.82142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.27551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.95408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.08673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.780612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.90816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4479,7 @@
         <v>0.0018983</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>108</v>
       </c>
@@ -4489,68 +4520,353 @@
         <v>0.0013482</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="B98" s="0" t="n">
+        <v>16354</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>15185.9</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>235.989</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>105.7878</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>168.19</v>
+      </c>
       <c r="H98" s="0" t="n">
         <v>114.23822048</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>0.0623</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="B99" s="0" t="n">
+        <v>16459.2</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>15401.9</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>237.419</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>105.053</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>173.58</v>
+      </c>
       <c r="H99" s="0" t="n">
         <v>118.02852908</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="B100" s="0" t="n">
+        <v>16539.9</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>15556.1</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>237.467</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>105.4536</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>175.19</v>
+      </c>
       <c r="H100" s="0" t="n">
         <v>120.54387832</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <v>-0.0008</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="B101" s="0" t="n">
+        <v>16575.7</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>15690.2</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>237.846</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>104.5657</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>175.29</v>
+      </c>
       <c r="H101" s="0" t="n">
         <v>122.71274946</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I101" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>0.0509</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="M101" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N101" s="0" t="n">
+        <v>-0.0006</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="B102" s="0" t="n">
+        <v>16610</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>15740.1</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>238.078</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>104.1296</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>176.79</v>
+      </c>
       <c r="H102" s="0" t="n">
         <v>123.4305099</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>0.0481</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="M102" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N102" s="0" t="n">
+        <v>-0.0001</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="B103" s="0" t="n">
+        <v>16668.1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>15929.4</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>239.842</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>103.9181</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>182.15</v>
+      </c>
       <c r="H103" s="0" t="n">
         <v>125.8291073</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>0.0457</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N103" s="0" t="n">
+        <v>-0.0001</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="B104" s="0" t="n">
+        <v>16812</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>16111.1</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>241.006</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>104.3576</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>184.45</v>
+      </c>
       <c r="H104" s="0" t="n">
         <v>126.50253469</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>0.0087</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="B105" s="0" t="n">
+        <v>16889.1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>16266.8</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>242.821</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>104.438</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>185.54</v>
+      </c>
       <c r="H105" s="0" t="n">
         <v>126.65812717</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="M105" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N105" s="0" t="n">
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -4572,10 +4888,13 @@
   <dimension ref="A2:B97"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.90816326530612"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -5556,6 +5875,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.90816326530612"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6354,6 +6676,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.90816326530612"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6896,7 +7221,7 @@
       <c r="A11" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <f aca="false">SQRT(B10)</f>
         <v>0.135757034247188</v>
       </c>
@@ -7435,14 +7760,14 @@
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">SUM(B21:AE21)</f>
-        <v>0.00318484517955171</v>
+        <v>0.00318484517955172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <f aca="false">SQRT(B22)</f>
         <v>0.056434432570477</v>
       </c>
@@ -7465,15 +7790,18 @@
   </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.90816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.90816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.90816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,7 +7824,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">SUM(E:E)</f>
-        <v>0.000329832775369125</v>
+        <v>0.000334334866014054</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Input!A2</f>
@@ -7507,20 +7835,17 @@
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D2/'rhos computation'!$B$23)-EXP(D2+'rhos computation'!$B$23^2/2)*NORMSDIST(-D2/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K2/Input!J2)</f>
-        <v>0.000199053828855281</v>
+        <v>0.000199053828855392</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>-0.268810822065752</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F2/'rhos computation'!$B$11)-EXP(F2+'rhos computation'!$B$11^2/2)*NORMSDIST(-F2/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M2/Input!L2)</f>
-        <v>8.63677333595714E-007</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>134</v>
-      </c>
+        <v>8.63677333706736E-007</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="str">
         <f aca="false">Input!A3</f>
         <v>1991Q2</v>
@@ -7530,14 +7855,14 @@
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D3/'rhos computation'!$B$23)-EXP(D3+'rhos computation'!$B$23^2/2)*NORMSDIST(-D3/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K3/Input!J3)</f>
-        <v>6.94183087741884E-007</v>
+        <v>6.94183087637801E-007</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>-0.273960823097658</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F3/'rhos computation'!$B$11)-EXP(F3+'rhos computation'!$B$11^2/2)*NORMSDIST(-F3/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M3/Input!L3)</f>
-        <v>2.03987693908614E-006</v>
+        <v>2.03987693930818E-006</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7550,23 +7875,23 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D4/'rhos computation'!$B$23)-EXP(D4+'rhos computation'!$B$23^2/2)*NORMSDIST(-D4/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K4/Input!J4)</f>
-        <v>3.24750205435431E-007</v>
+        <v>3.24750205546453E-007</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>-0.29609490189174</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F4/'rhos computation'!$B$11)-EXP(F4+'rhos computation'!$B$11^2/2)*NORMSDIST(-F4/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M4/Input!L4)</f>
-        <v>1.9270270955607E-006</v>
+        <v>1.92702709544967E-006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">SUM(G:G)</f>
-        <v>0.000574928947040282</v>
+        <v>0.000589465403875297</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">Input!A5</f>
@@ -7584,7 +7909,7 @@
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F5/'rhos computation'!$B$11)-EXP(F5+'rhos computation'!$B$11^2/2)*NORMSDIST(-F5/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M5/Input!L5)</f>
-        <v>6.55685635897463E-007</v>
+        <v>6.55685636008485E-007</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7604,7 +7929,7 @@
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F6/'rhos computation'!$B$11)-EXP(F6+'rhos computation'!$B$11^2/2)*NORMSDIST(-F6/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M6/Input!L6)</f>
-        <v>2.77453041364062E-006</v>
+        <v>2.77453041375164E-006</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7617,17 +7942,20 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D7/'rhos computation'!$B$23)-EXP(D7+'rhos computation'!$B$23^2/2)*NORMSDIST(-D7/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K7/Input!J7)</f>
-        <v>1.44922233116795E-007</v>
+        <v>1.4492223321394E-007</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>-0.291750694554806</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F7/'rhos computation'!$B$11)-EXP(F7+'rhos computation'!$B$11^2/2)*NORMSDIST(-F7/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M7/Input!L7)</f>
-        <v>9.86529349045195E-008</v>
+        <v>9.86529346824749E-008</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>135</v>
+      </c>
       <c r="C8" s="0" t="str">
         <f aca="false">Input!A8</f>
         <v>1992Q3</v>
@@ -7637,17 +7965,20 @@
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D8/'rhos computation'!$B$23)-EXP(D8+'rhos computation'!$B$23^2/2)*NORMSDIST(-D8/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K8/Input!J8)</f>
-        <v>3.65946352012814E-007</v>
+        <v>3.65946352026691E-007</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>-0.403802898332137</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F8/'rhos computation'!$B$11)-EXP(F8+'rhos computation'!$B$11^2/2)*NORMSDIST(-F8/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M8/Input!L8)</f>
-        <v>3.05923322946322E-006</v>
+        <v>3.05923322968527E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="C9" s="0" t="str">
         <f aca="false">Input!A9</f>
         <v>1992Q4</v>
@@ -7657,7 +7988,7 @@
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D9/'rhos computation'!$B$23)-EXP(D9+'rhos computation'!$B$23^2/2)*NORMSDIST(-D9/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K9/Input!J9)</f>
-        <v>4.98237064980311E-007</v>
+        <v>4.98237064966434E-007</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>-0.367929010990226</v>
@@ -7668,6 +7999,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>137</v>
+      </c>
       <c r="C10" s="0" t="str">
         <f aca="false">Input!A10</f>
         <v>1993Q1</v>
@@ -7708,6 +8042,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>138</v>
+      </c>
       <c r="C12" s="0" t="str">
         <f aca="false">Input!A12</f>
         <v>1993Q3</v>
@@ -7724,10 +8061,13 @@
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F12/'rhos computation'!$B$11)-EXP(F12+'rhos computation'!$B$11^2/2)*NORMSDIST(-F12/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M12/Input!L12)</f>
-        <v>4.30015068358935E-007</v>
+        <v>4.30015068136891E-007</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>139</v>
+      </c>
       <c r="C13" s="0" t="str">
         <f aca="false">Input!A13</f>
         <v>1993Q4</v>
@@ -7744,10 +8084,13 @@
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F13/'rhos computation'!$B$11)-EXP(F13+'rhos computation'!$B$11^2/2)*NORMSDIST(-F13/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M13/Input!L13)</f>
-        <v>2.55987118180645E-006</v>
+        <v>2.55987118225054E-006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>140</v>
+      </c>
       <c r="C14" s="0" t="str">
         <f aca="false">Input!A14</f>
         <v>1994Q1</v>
@@ -7757,17 +8100,20 @@
       </c>
       <c r="E14" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D14/'rhos computation'!$B$23)-EXP(D14+'rhos computation'!$B$23^2/2)*NORMSDIST(-D14/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K14/Input!J14)</f>
-        <v>7.13345018971134E-007</v>
+        <v>7.13345018985012E-007</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>-0.268687436734803</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F14/'rhos computation'!$B$11)-EXP(F14+'rhos computation'!$B$11^2/2)*NORMSDIST(-F14/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M14/Input!L14)</f>
-        <v>5.07507083830072E-007</v>
+        <v>5.07507084163139E-007</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>141</v>
+      </c>
       <c r="C15" s="0" t="str">
         <f aca="false">Input!A15</f>
         <v>1994Q2</v>
@@ -7777,17 +8123,20 @@
       </c>
       <c r="E15" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D15/'rhos computation'!$B$23)-EXP(D15+'rhos computation'!$B$23^2/2)*NORMSDIST(-D15/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K15/Input!J15)</f>
-        <v>9.40358072271108E-007</v>
+        <v>9.4035807238213E-007</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>-0.235814797591476</v>
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F15/'rhos computation'!$B$11)-EXP(F15+'rhos computation'!$B$11^2/2)*NORMSDIST(-F15/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M15/Input!L15)</f>
-        <v>2.42147509574298E-006</v>
+        <v>2.42147509563195E-006</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>142</v>
+      </c>
       <c r="C16" s="0" t="str">
         <f aca="false">Input!A16</f>
         <v>1994Q3</v>
@@ -7797,14 +8146,14 @@
       </c>
       <c r="E16" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D16/'rhos computation'!$B$23)-EXP(D16+'rhos computation'!$B$23^2/2)*NORMSDIST(-D16/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K16/Input!J16)</f>
-        <v>7.87560618623062E-007</v>
+        <v>7.87560618741023E-007</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>-0.213157454906307</v>
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F16/'rhos computation'!$B$11)-EXP(F16+'rhos computation'!$B$11^2/2)*NORMSDIST(-F16/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M16/Input!L16)</f>
-        <v>5.68668312156406E-006</v>
+        <v>5.68668312145304E-006</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,14 +8166,14 @@
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D17/'rhos computation'!$B$23)-EXP(D17+'rhos computation'!$B$23^2/2)*NORMSDIST(-D17/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K17/Input!J17)</f>
-        <v>2.11563395913217E-007</v>
+        <v>2.11563395899339E-007</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>-0.21519950194626</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F17/'rhos computation'!$B$11)-EXP(F17+'rhos computation'!$B$11^2/2)*NORMSDIST(-F17/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M17/Input!L17)</f>
-        <v>5.01450795747926E-007</v>
+        <v>5.0145079541486E-007</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,7 +8186,7 @@
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D18/'rhos computation'!$B$23)-EXP(D18+'rhos computation'!$B$23^2/2)*NORMSDIST(-D18/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K18/Input!J18)</f>
-        <v>9.92770773158846E-008</v>
+        <v>9.92770774269069E-008</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>-0.190402517494601</v>
@@ -7857,14 +8206,14 @@
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D19/'rhos computation'!$B$23)-EXP(D19+'rhos computation'!$B$23^2/2)*NORMSDIST(-D19/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K19/Input!J19)</f>
-        <v>7.1164175316496E-009</v>
+        <v>7.11641740674951E-009</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>-0.230649673536259</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F19/'rhos computation'!$B$11)-EXP(F19+'rhos computation'!$B$11^2/2)*NORMSDIST(-F19/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M19/Input!L19)</f>
-        <v>1.66681773114408E-006</v>
+        <v>1.66681773136612E-006</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,14 +8226,14 @@
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D20/'rhos computation'!$B$23)-EXP(D20+'rhos computation'!$B$23^2/2)*NORMSDIST(-D20/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K20/Input!J20)</f>
-        <v>2.27486100408403E-007</v>
+        <v>2.27486100311258E-007</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>-0.157416236917992</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F20/'rhos computation'!$B$11)-EXP(F20+'rhos computation'!$B$11^2/2)*NORMSDIST(-F20/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M20/Input!L20)</f>
-        <v>9.51520431582975E-006</v>
+        <v>9.51520431549668E-006</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7897,14 +8246,14 @@
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D21/'rhos computation'!$B$23)-EXP(D21+'rhos computation'!$B$23^2/2)*NORMSDIST(-D21/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K21/Input!J21)</f>
-        <v>6.20719887323151E-007</v>
+        <v>6.20719887545196E-007</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>-0.14470776771243</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F21/'rhos computation'!$B$11)-EXP(F21+'rhos computation'!$B$11^2/2)*NORMSDIST(-F21/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M21/Input!L21)</f>
-        <v>9.74653868807129E-007</v>
+        <v>9.74653868252018E-007</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,14 +8266,14 @@
       </c>
       <c r="E22" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D22/'rhos computation'!$B$23)-EXP(D22+'rhos computation'!$B$23^2/2)*NORMSDIST(-D22/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K22/Input!J22)</f>
-        <v>2.99420301885789E-007</v>
+        <v>2.99420301996811E-007</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>-0.150759687558413</v>
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F22/'rhos computation'!$B$11)-EXP(F22+'rhos computation'!$B$11^2/2)*NORMSDIST(-F22/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M22/Input!L22)</f>
-        <v>7.56122837280993E-006</v>
+        <v>7.56122837258788E-006</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7937,14 +8286,14 @@
       </c>
       <c r="E23" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D23/'rhos computation'!$B$23)-EXP(D23+'rhos computation'!$B$23^2/2)*NORMSDIST(-D23/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K23/Input!J23)</f>
-        <v>2.50692456379292E-006</v>
+        <v>2.50692456390394E-006</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>-0.119674589966672</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F23/'rhos computation'!$B$11)-EXP(F23+'rhos computation'!$B$11^2/2)*NORMSDIST(-F23/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M23/Input!L23)</f>
-        <v>5.82251501167475E-006</v>
+        <v>5.82251501156372E-006</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7957,14 +8306,14 @@
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D24/'rhos computation'!$B$23)-EXP(D24+'rhos computation'!$B$23^2/2)*NORMSDIST(-D24/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K24/Input!J24)</f>
-        <v>2.54339648335378E-006</v>
+        <v>2.54339648345786E-006</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>-0.117063162557368</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F24/'rhos computation'!$B$11)-EXP(F24+'rhos computation'!$B$11^2/2)*NORMSDIST(-F24/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M24/Input!L24)</f>
-        <v>5.07354109596792E-006</v>
+        <v>5.07354109585689E-006</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7977,7 +8326,7 @@
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D25/'rhos computation'!$B$23)-EXP(D25+'rhos computation'!$B$23^2/2)*NORMSDIST(-D25/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K25/Input!J25)</f>
-        <v>1.67201549133855E-009</v>
+        <v>1.67201538031625E-009</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>-0.073709720482822</v>
@@ -7997,7 +8346,7 @@
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D26/'rhos computation'!$B$23)-EXP(D26+'rhos computation'!$B$23^2/2)*NORMSDIST(-D26/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K26/Input!J26)</f>
-        <v>4.00021063912126E-008</v>
+        <v>4.00021063842737E-008</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>-0.0813415103750063</v>
@@ -8017,14 +8366,14 @@
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D27/'rhos computation'!$B$23)-EXP(D27+'rhos computation'!$B$23^2/2)*NORMSDIST(-D27/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K27/Input!J27)</f>
-        <v>2.84346434413635E-005</v>
+        <v>2.84346434414676E-005</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>-0.0633802236104724</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F27/'rhos computation'!$B$11)-EXP(F27+'rhos computation'!$B$11^2/2)*NORMSDIST(-F27/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M27/Input!L27)</f>
-        <v>6.85058874752564E-007</v>
+        <v>6.85058874863587E-007</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,14 +8386,14 @@
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D28/'rhos computation'!$B$23)-EXP(D28+'rhos computation'!$B$23^2/2)*NORMSDIST(-D28/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K28/Input!J28)</f>
-        <v>6.18383717657795E-006</v>
+        <v>6.18383717657794E-006</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>-0.0637566221431439</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F28/'rhos computation'!$B$11)-EXP(F28+'rhos computation'!$B$11^2/2)*NORMSDIST(-F28/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M28/Input!L28)</f>
-        <v>4.1715846945678E-006</v>
+        <v>4.17158469445678E-006</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8057,14 +8406,14 @@
       </c>
       <c r="E29" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D29/'rhos computation'!$B$23)-EXP(D29+'rhos computation'!$B$23^2/2)*NORMSDIST(-D29/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K29/Input!J29)</f>
-        <v>1.03381827613186E-005</v>
+        <v>1.03381827612145E-005</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>-0.0562759840164382</v>
       </c>
       <c r="G29" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F29/'rhos computation'!$B$11)-EXP(F29+'rhos computation'!$B$11^2/2)*NORMSDIST(-F29/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M29/Input!L29)</f>
-        <v>9.14875461763276E-007</v>
+        <v>9.14875461874298E-007</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8077,7 +8426,7 @@
       </c>
       <c r="E30" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D30/'rhos computation'!$B$23)-EXP(D30+'rhos computation'!$B$23^2/2)*NORMSDIST(-D30/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K30/Input!J30)</f>
-        <v>1.13825145607385E-005</v>
+        <v>1.13825145606275E-005</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>-0.079440019772288</v>
@@ -8097,14 +8446,14 @@
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D31/'rhos computation'!$B$23)-EXP(D31+'rhos computation'!$B$23^2/2)*NORMSDIST(-D31/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K31/Input!J31)</f>
-        <v>2.46391534561643E-005</v>
+        <v>2.46391534562754E-005</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>-0.0477196329816923</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F31/'rhos computation'!$B$11)-EXP(F31+'rhos computation'!$B$11^2/2)*NORMSDIST(-F31/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M31/Input!L31)</f>
-        <v>1.78066597464333E-006</v>
+        <v>1.78066597475435E-006</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8144,7 +8493,7 @@
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F33/'rhos computation'!$B$11)-EXP(F33+'rhos computation'!$B$11^2/2)*NORMSDIST(-F33/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M33/Input!L33)</f>
-        <v>8.80905191949499E-006</v>
+        <v>8.80905191960601E-006</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8164,7 +8513,7 @@
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F34/'rhos computation'!$B$11)-EXP(F34+'rhos computation'!$B$11^2/2)*NORMSDIST(-F34/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M34/Input!L34)</f>
-        <v>3.46040401749681E-007</v>
+        <v>3.46040401860703E-007</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8197,7 +8546,7 @@
       </c>
       <c r="E36" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D36/'rhos computation'!$B$23)-EXP(D36+'rhos computation'!$B$23^2/2)*NORMSDIST(-D36/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K36/Input!J36)</f>
-        <v>6.28803881116968E-007</v>
+        <v>6.28803881130846E-007</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>-0.0972374874509925</v>
@@ -8224,7 +8573,7 @@
       </c>
       <c r="G37" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F37/'rhos computation'!$B$11)-EXP(F37+'rhos computation'!$B$11^2/2)*NORMSDIST(-F37/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M37/Input!L37)</f>
-        <v>1.72835773470936E-011</v>
+        <v>1.72833553024887E-011</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8237,14 +8586,14 @@
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D38/'rhos computation'!$B$23)-EXP(D38+'rhos computation'!$B$23^2/2)*NORMSDIST(-D38/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K38/Input!J38)</f>
-        <v>9.25215646666033E-007</v>
+        <v>9.25215646555011E-007</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>-0.0987736984967255</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F38/'rhos computation'!$B$11)-EXP(F38+'rhos computation'!$B$11^2/2)*NORMSDIST(-F38/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M38/Input!L38)</f>
-        <v>3.43866111851554E-006</v>
+        <v>3.43866111840452E-006</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,7 +8606,7 @@
       </c>
       <c r="E39" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D39/'rhos computation'!$B$23)-EXP(D39+'rhos computation'!$B$23^2/2)*NORMSDIST(-D39/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K39/Input!J39)</f>
-        <v>5.79925194144071E-007</v>
+        <v>5.79925194366115E-007</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>-0.12147557806308</v>
@@ -8284,7 +8633,7 @@
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F40/'rhos computation'!$B$11)-EXP(F40+'rhos computation'!$B$11^2/2)*NORMSDIST(-F40/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M40/Input!L40)</f>
-        <v>4.15990725798066E-006</v>
+        <v>4.1599072582027E-006</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8297,7 +8646,7 @@
       </c>
       <c r="E41" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D41/'rhos computation'!$B$23)-EXP(D41+'rhos computation'!$B$23^2/2)*NORMSDIST(-D41/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K41/Input!J41)</f>
-        <v>3.93770415420269E-007</v>
+        <v>3.9377041541333E-007</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>-0.117998518923755</v>
@@ -8324,7 +8673,7 @@
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F42/'rhos computation'!$B$11)-EXP(F42+'rhos computation'!$B$11^2/2)*NORMSDIST(-F42/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M42/Input!L42)</f>
-        <v>5.60950917105618E-007</v>
+        <v>5.60950917327663E-007</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8344,7 +8693,7 @@
       </c>
       <c r="G43" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F43/'rhos computation'!$B$11)-EXP(F43+'rhos computation'!$B$11^2/2)*NORMSDIST(-F43/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M43/Input!L43)</f>
-        <v>2.03349088734317E-007</v>
+        <v>2.03349088845339E-007</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,7 +8706,7 @@
       </c>
       <c r="E44" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D44/'rhos computation'!$B$23)-EXP(D44+'rhos computation'!$B$23^2/2)*NORMSDIST(-D44/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K44/Input!J44)</f>
-        <v>1.17226525264691E-007</v>
+        <v>1.17226524876113E-007</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>-0.157670885016464</v>
@@ -8377,14 +8726,14 @@
       </c>
       <c r="E45" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D45/'rhos computation'!$B$23)-EXP(D45+'rhos computation'!$B$23^2/2)*NORMSDIST(-D45/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K45/Input!J45)</f>
-        <v>7.21788033355986E-007</v>
+        <v>7.21788033244963E-007</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>-0.185229467454772</v>
       </c>
       <c r="G45" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F45/'rhos computation'!$B$11)-EXP(F45+'rhos computation'!$B$11^2/2)*NORMSDIST(-F45/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M45/Input!L45)</f>
-        <v>3.99482251572936E-006</v>
+        <v>3.99482251550731E-006</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,14 +8746,14 @@
       </c>
       <c r="E46" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D46/'rhos computation'!$B$23)-EXP(D46+'rhos computation'!$B$23^2/2)*NORMSDIST(-D46/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K46/Input!J46)</f>
-        <v>6.23500935298393E-007</v>
+        <v>6.23500935312271E-007</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>-0.187644441672005</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F46/'rhos computation'!$B$11)-EXP(F46+'rhos computation'!$B$11^2/2)*NORMSDIST(-F46/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M46/Input!L46)</f>
-        <v>3.67830275388448E-006</v>
+        <v>3.67830275377345E-006</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,14 +8766,14 @@
       </c>
       <c r="E47" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D47/'rhos computation'!$B$23)-EXP(D47+'rhos computation'!$B$23^2/2)*NORMSDIST(-D47/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K47/Input!J47)</f>
-        <v>7.08954783476545E-007</v>
+        <v>7.08954783462668E-007</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>-0.173752169364285</v>
       </c>
       <c r="G47" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F47/'rhos computation'!$B$11)-EXP(F47+'rhos computation'!$B$11^2/2)*NORMSDIST(-F47/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M47/Input!L47)</f>
-        <v>1.60609712329673E-006</v>
+        <v>1.6060971236298E-006</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8444,7 +8793,7 @@
       </c>
       <c r="G48" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F48/'rhos computation'!$B$11)-EXP(F48+'rhos computation'!$B$11^2/2)*NORMSDIST(-F48/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M48/Input!L48)</f>
-        <v>2.24666580886379E-006</v>
+        <v>2.24666580897481E-006</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8457,14 +8806,14 @@
       </c>
       <c r="E49" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D49/'rhos computation'!$B$23)-EXP(D49+'rhos computation'!$B$23^2/2)*NORMSDIST(-D49/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K49/Input!J49)</f>
-        <v>6.41648522023419E-007</v>
+        <v>6.41648522009541E-007</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>-0.192024753951282</v>
       </c>
       <c r="G49" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F49/'rhos computation'!$B$11)-EXP(F49+'rhos computation'!$B$11^2/2)*NORMSDIST(-F49/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M49/Input!L49)</f>
-        <v>2.08586601138649E-006</v>
+        <v>2.08586601094241E-006</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8477,7 +8826,7 @@
       </c>
       <c r="E50" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D50/'rhos computation'!$B$23)-EXP(D50+'rhos computation'!$B$23^2/2)*NORMSDIST(-D50/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K50/Input!J50)</f>
-        <v>9.00397199160574E-008</v>
+        <v>9.00397198189129E-008</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>-0.16333042368018</v>
@@ -8504,7 +8853,7 @@
       </c>
       <c r="G51" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F51/'rhos computation'!$B$11)-EXP(F51+'rhos computation'!$B$11^2/2)*NORMSDIST(-F51/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M51/Input!L51)</f>
-        <v>3.62054000077605E-006</v>
+        <v>3.62054000110912E-006</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8517,14 +8866,14 @@
       </c>
       <c r="E52" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D52/'rhos computation'!$B$23)-EXP(D52+'rhos computation'!$B$23^2/2)*NORMSDIST(-D52/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K52/Input!J52)</f>
-        <v>1.69704969794904E-006</v>
+        <v>1.69704969806006E-006</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>-0.193918732245534</v>
       </c>
       <c r="G52" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F52/'rhos computation'!$B$11)-EXP(F52+'rhos computation'!$B$11^2/2)*NORMSDIST(-F52/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M52/Input!L52)</f>
-        <v>5.22136140604368E-006</v>
+        <v>5.22136140582163E-006</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,14 +8886,14 @@
       </c>
       <c r="E53" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D53/'rhos computation'!$B$23)-EXP(D53+'rhos computation'!$B$23^2/2)*NORMSDIST(-D53/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K53/Input!J53)</f>
-        <v>1.86166775156815E-006</v>
+        <v>1.86166775167917E-006</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>-0.162731052728449</v>
       </c>
       <c r="G53" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F53/'rhos computation'!$B$11)-EXP(F53+'rhos computation'!$B$11^2/2)*NORMSDIST(-F53/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M53/Input!L53)</f>
-        <v>1.33553116666574E-005</v>
+        <v>1.33553116668794E-005</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8557,14 +8906,14 @@
       </c>
       <c r="E54" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D54/'rhos computation'!$B$23)-EXP(D54+'rhos computation'!$B$23^2/2)*NORMSDIST(-D54/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K54/Input!J54)</f>
-        <v>2.02561348203178E-006</v>
+        <v>2.02561348204566E-006</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>-0.163537644393938</v>
       </c>
       <c r="G54" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F54/'rhos computation'!$B$11)-EXP(F54+'rhos computation'!$B$11^2/2)*NORMSDIST(-F54/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M54/Input!L54)</f>
-        <v>7.69107628328936E-006</v>
+        <v>7.69107628306731E-006</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,7 +8926,7 @@
       </c>
       <c r="E55" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D55/'rhos computation'!$B$23)-EXP(D55+'rhos computation'!$B$23^2/2)*NORMSDIST(-D55/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K55/Input!J55)</f>
-        <v>3.17889978646013E-008</v>
+        <v>3.17889978507235E-008</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>-0.140875796908425</v>
@@ -8624,7 +8973,7 @@
       </c>
       <c r="G57" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F57/'rhos computation'!$B$11)-EXP(F57+'rhos computation'!$B$11^2/2)*NORMSDIST(-F57/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M57/Input!L57)</f>
-        <v>2.56590994937578E-006</v>
+        <v>2.56590994915373E-006</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8644,7 +8993,7 @@
       </c>
       <c r="G58" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F58/'rhos computation'!$B$11)-EXP(F58+'rhos computation'!$B$11^2/2)*NORMSDIST(-F58/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M58/Input!L58)</f>
-        <v>4.36017039340264E-006</v>
+        <v>4.36017039306957E-006</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,7 +9013,7 @@
       </c>
       <c r="G59" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F59/'rhos computation'!$B$11)-EXP(F59+'rhos computation'!$B$11^2/2)*NORMSDIST(-F59/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M59/Input!L59)</f>
-        <v>4.63008904336149E-006</v>
+        <v>4.63008904325046E-006</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8677,14 +9026,14 @@
       </c>
       <c r="E60" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D60/'rhos computation'!$B$23)-EXP(D60+'rhos computation'!$B$23^2/2)*NORMSDIST(-D60/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K60/Input!J60)</f>
-        <v>4.89424722624476E-008</v>
+        <v>4.89424722693865E-008</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>-0.14159040166194</v>
       </c>
       <c r="G60" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F60/'rhos computation'!$B$11)-EXP(F60+'rhos computation'!$B$11^2/2)*NORMSDIST(-F60/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M60/Input!L60)</f>
-        <v>4.87270234234005E-006</v>
+        <v>4.87270234267312E-006</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,7 +9053,7 @@
       </c>
       <c r="G61" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F61/'rhos computation'!$B$11)-EXP(F61+'rhos computation'!$B$11^2/2)*NORMSDIST(-F61/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M61/Input!L61)</f>
-        <v>1.36237302634373E-005</v>
+        <v>1.36237302635483E-005</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8737,7 +9086,7 @@
       </c>
       <c r="E63" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D63/'rhos computation'!$B$23)-EXP(D63+'rhos computation'!$B$23^2/2)*NORMSDIST(-D63/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K63/Input!J63)</f>
-        <v>6.47771600185976E-007</v>
+        <v>6.47771600179037E-007</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>-0.10316760708397</v>
@@ -8764,7 +9113,7 @@
       </c>
       <c r="G64" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F64/'rhos computation'!$B$11)-EXP(F64+'rhos computation'!$B$11^2/2)*NORMSDIST(-F64/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M64/Input!L64)</f>
-        <v>7.0394269335583E-006</v>
+        <v>7.03942693322523E-006</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8777,14 +9126,14 @@
       </c>
       <c r="E65" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D65/'rhos computation'!$B$23)-EXP(D65+'rhos computation'!$B$23^2/2)*NORMSDIST(-D65/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K65/Input!J65)</f>
-        <v>1.85996448957837E-007</v>
+        <v>1.85996449068859E-007</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>-0.115691585268892</v>
       </c>
       <c r="G65" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F65/'rhos computation'!$B$11)-EXP(F65+'rhos computation'!$B$11^2/2)*NORMSDIST(-F65/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M65/Input!L65)</f>
-        <v>8.83511090347955E-006</v>
+        <v>8.83511090292444E-006</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8797,14 +9146,14 @@
       </c>
       <c r="E66" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D66/'rhos computation'!$B$23)-EXP(D66+'rhos computation'!$B$23^2/2)*NORMSDIST(-D66/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K66/Input!J66)</f>
-        <v>1.06359495465058E-006</v>
+        <v>1.06359495453956E-006</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>-0.189006158530724</v>
       </c>
       <c r="G66" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F66/'rhos computation'!$B$11)-EXP(F66+'rhos computation'!$B$11^2/2)*NORMSDIST(-F66/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M66/Input!L66)</f>
-        <v>6.7190355168556E-007</v>
+        <v>6.71903551796582E-007</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8824,7 +9173,7 @@
       </c>
       <c r="G67" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F67/'rhos computation'!$B$11)-EXP(F67+'rhos computation'!$B$11^2/2)*NORMSDIST(-F67/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M67/Input!L67)</f>
-        <v>4.37990700588586E-006</v>
+        <v>4.37990700610791E-006</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8857,14 +9206,14 @@
       </c>
       <c r="E69" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D69/'rhos computation'!$B$23)-EXP(D69+'rhos computation'!$B$23^2/2)*NORMSDIST(-D69/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K69/Input!J69)</f>
-        <v>1.60284357980656E-007</v>
+        <v>1.60284357619833E-007</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>-0.198695438938047</v>
       </c>
       <c r="G69" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F69/'rhos computation'!$B$11)-EXP(F69+'rhos computation'!$B$11^2/2)*NORMSDIST(-F69/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M69/Input!L69)</f>
-        <v>7.42108524842688E-006</v>
+        <v>7.42108524875995E-006</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8884,7 +9233,7 @@
       </c>
       <c r="G70" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F70/'rhos computation'!$B$11)-EXP(F70+'rhos computation'!$B$11^2/2)*NORMSDIST(-F70/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M70/Input!L70)</f>
-        <v>3.45450926212409E-005</v>
+        <v>3.45450926211299E-005</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,14 +9246,14 @@
       </c>
       <c r="E71" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D71/'rhos computation'!$B$23)-EXP(D71+'rhos computation'!$B$23^2/2)*NORMSDIST(-D71/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K71/Input!J71)</f>
-        <v>2.32121684595743E-007</v>
+        <v>2.32121684262676E-007</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>-0.376297661425561</v>
       </c>
       <c r="G71" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F71/'rhos computation'!$B$11)-EXP(F71+'rhos computation'!$B$11^2/2)*NORMSDIST(-F71/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M71/Input!L71)</f>
-        <v>2.54960288714745E-007</v>
+        <v>2.5496028893679E-007</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8917,14 +9266,14 @@
       </c>
       <c r="E72" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D72/'rhos computation'!$B$23)-EXP(D72+'rhos computation'!$B$23^2/2)*NORMSDIST(-D72/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K72/Input!J72)</f>
-        <v>8.69099109013227E-007</v>
+        <v>8.69099108902205E-007</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>-0.398514166433989</v>
       </c>
       <c r="G72" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F72/'rhos computation'!$B$11)-EXP(F72+'rhos computation'!$B$11^2/2)*NORMSDIST(-F72/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M72/Input!L72)</f>
-        <v>1.48889638107441E-006</v>
+        <v>1.48889638085237E-006</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8944,7 +9293,7 @@
       </c>
       <c r="G73" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F73/'rhos computation'!$B$11)-EXP(F73+'rhos computation'!$B$11^2/2)*NORMSDIST(-F73/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M73/Input!L73)</f>
-        <v>1.53603734692753E-006</v>
+        <v>1.53603734703855E-006</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8957,14 +9306,14 @@
       </c>
       <c r="E74" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D74/'rhos computation'!$B$23)-EXP(D74+'rhos computation'!$B$23^2/2)*NORMSDIST(-D74/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K74/Input!J74)</f>
-        <v>2.81373943256114E-007</v>
+        <v>2.81373943034069E-007</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>-0.390703784880321</v>
       </c>
       <c r="G74" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F74/'rhos computation'!$B$11)-EXP(F74+'rhos computation'!$B$11^2/2)*NORMSDIST(-F74/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M74/Input!L74)</f>
-        <v>1.4199884618149E-006</v>
+        <v>1.41998846214797E-006</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8977,14 +9326,14 @@
       </c>
       <c r="E75" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D75/'rhos computation'!$B$23)-EXP(D75+'rhos computation'!$B$23^2/2)*NORMSDIST(-D75/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K75/Input!J75)</f>
-        <v>7.59402679628707E-008</v>
+        <v>7.59402678518484E-008</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>-0.472381390162843</v>
       </c>
       <c r="G75" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F75/'rhos computation'!$B$11)-EXP(F75+'rhos computation'!$B$11^2/2)*NORMSDIST(-F75/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M75/Input!L75)</f>
-        <v>1.2448044373059E-006</v>
+        <v>1.24480443708386E-006</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8997,7 +9346,7 @@
       </c>
       <c r="E76" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D76/'rhos computation'!$B$23)-EXP(D76+'rhos computation'!$B$23^2/2)*NORMSDIST(-D76/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K76/Input!J76)</f>
-        <v>3.37091704050163E-007</v>
+        <v>3.37091703939141E-007</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>-0.483726478995132</v>
@@ -9017,14 +9366,14 @@
       </c>
       <c r="E77" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D77/'rhos computation'!$B$23)-EXP(D77+'rhos computation'!$B$23^2/2)*NORMSDIST(-D77/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K77/Input!J77)</f>
-        <v>3.18818236699769E-007</v>
+        <v>3.18818236810792E-007</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>-0.546666161942413</v>
       </c>
       <c r="G77" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F77/'rhos computation'!$B$11)-EXP(F77+'rhos computation'!$B$11^2/2)*NORMSDIST(-F77/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M77/Input!L77)</f>
-        <v>4.34224251366633E-006</v>
+        <v>4.34224251344428E-006</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9037,14 +9386,14 @@
       </c>
       <c r="E78" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D78/'rhos computation'!$B$23)-EXP(D78+'rhos computation'!$B$23^2/2)*NORMSDIST(-D78/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K78/Input!J78)</f>
-        <v>5.38381623088613E-007</v>
+        <v>5.38381623255146E-007</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>-0.444575738434129</v>
       </c>
       <c r="G78" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F78/'rhos computation'!$B$11)-EXP(F78+'rhos computation'!$B$11^2/2)*NORMSDIST(-F78/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M78/Input!L78)</f>
-        <v>1.58671117712061E-005</v>
+        <v>1.58671117709841E-005</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9057,14 +9406,14 @@
       </c>
       <c r="E79" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D79/'rhos computation'!$B$23)-EXP(D79+'rhos computation'!$B$23^2/2)*NORMSDIST(-D79/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K79/Input!J79)</f>
-        <v>3.01031742033775E-008</v>
+        <v>3.01031745364444E-008</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>-0.444058194165844</v>
       </c>
       <c r="G79" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F79/'rhos computation'!$B$11)-EXP(F79+'rhos computation'!$B$11^2/2)*NORMSDIST(-F79/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M79/Input!L79)</f>
-        <v>6.40361687359592E-006</v>
+        <v>6.40361687370694E-006</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9077,14 +9426,14 @@
       </c>
       <c r="E80" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D80/'rhos computation'!$B$23)-EXP(D80+'rhos computation'!$B$23^2/2)*NORMSDIST(-D80/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K80/Input!J80)</f>
-        <v>1.05404054989711E-006</v>
+        <v>1.05404054975833E-006</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>-0.441647985572461</v>
       </c>
       <c r="G80" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F80/'rhos computation'!$B$11)-EXP(F80+'rhos computation'!$B$11^2/2)*NORMSDIST(-F80/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M80/Input!L80)</f>
-        <v>8.24421003686737E-009</v>
+        <v>8.24420992584507E-009</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9097,14 +9446,14 @@
       </c>
       <c r="E81" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D81/'rhos computation'!$B$23)-EXP(D81+'rhos computation'!$B$23^2/2)*NORMSDIST(-D81/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K81/Input!J81)</f>
-        <v>2.12009126004942E-007</v>
+        <v>2.12009125782897E-007</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>-0.436650705635249</v>
       </c>
       <c r="G81" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F81/'rhos computation'!$B$11)-EXP(F81+'rhos computation'!$B$11^2/2)*NORMSDIST(-F81/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M81/Input!L81)</f>
-        <v>9.58767492675872E-007</v>
+        <v>9.58767492564849E-007</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,14 +9466,14 @@
       </c>
       <c r="E82" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D82/'rhos computation'!$B$23)-EXP(D82+'rhos computation'!$B$23^2/2)*NORMSDIST(-D82/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K82/Input!J82)</f>
-        <v>2.76835512735829E-007</v>
+        <v>2.76835512624807E-007</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>-0.388554119996251</v>
       </c>
       <c r="G82" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F82/'rhos computation'!$B$11)-EXP(F82+'rhos computation'!$B$11^2/2)*NORMSDIST(-F82/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M82/Input!L82)</f>
-        <v>9.79368450504392E-007</v>
+        <v>9.7936845039337E-007</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9137,14 +9486,14 @@
       </c>
       <c r="E83" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D83/'rhos computation'!$B$23)-EXP(D83+'rhos computation'!$B$23^2/2)*NORMSDIST(-D83/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K83/Input!J83)</f>
-        <v>6.07872561286804E-007</v>
+        <v>6.0787256106476E-007</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>-0.350204406453501</v>
       </c>
       <c r="G83" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F83/'rhos computation'!$B$11)-EXP(F83+'rhos computation'!$B$11^2/2)*NORMSDIST(-F83/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M83/Input!L83)</f>
-        <v>8.00028107372786E-007</v>
+        <v>8.0002810759483E-007</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,14 +9506,14 @@
       </c>
       <c r="E84" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D84/'rhos computation'!$B$23)-EXP(D84+'rhos computation'!$B$23^2/2)*NORMSDIST(-D84/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K84/Input!J84)</f>
-        <v>1.11845643058217E-006</v>
+        <v>1.11845643047115E-006</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>-0.318793268330846</v>
       </c>
       <c r="G84" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F84/'rhos computation'!$B$11)-EXP(F84+'rhos computation'!$B$11^2/2)*NORMSDIST(-F84/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M84/Input!L84)</f>
-        <v>6.0457409702952E-006</v>
+        <v>6.04574097040622E-006</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9177,7 +9526,7 @@
       </c>
       <c r="E85" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D85/'rhos computation'!$B$23)-EXP(D85+'rhos computation'!$B$23^2/2)*NORMSDIST(-D85/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K85/Input!J85)</f>
-        <v>1.58137612144005E-007</v>
+        <v>1.5813761217176E-007</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>-0.310075985292431</v>
@@ -9197,14 +9546,14 @@
       </c>
       <c r="E86" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D86/'rhos computation'!$B$23)-EXP(D86+'rhos computation'!$B$23^2/2)*NORMSDIST(-D86/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K86/Input!J86)</f>
-        <v>4.29020091369248E-007</v>
+        <v>4.29020091591292E-007</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>-0.299124469211401</v>
       </c>
       <c r="G86" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F86/'rhos computation'!$B$11)-EXP(F86+'rhos computation'!$B$11^2/2)*NORMSDIST(-F86/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M86/Input!L86)</f>
-        <v>1.91356228435025E-006</v>
+        <v>1.91356228468331E-006</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,14 +9566,14 @@
       </c>
       <c r="E87" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D87/'rhos computation'!$B$23)-EXP(D87+'rhos computation'!$B$23^2/2)*NORMSDIST(-D87/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K87/Input!J87)</f>
-        <v>1.05514001053075E-006</v>
+        <v>1.0551400106279E-006</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>-0.278329331946509</v>
       </c>
       <c r="G87" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F87/'rhos computation'!$B$11)-EXP(F87+'rhos computation'!$B$11^2/2)*NORMSDIST(-F87/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M87/Input!L87)</f>
-        <v>1.50294694256647E-006</v>
+        <v>1.50294694278852E-006</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,14 +9586,14 @@
       </c>
       <c r="E88" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D88/'rhos computation'!$B$23)-EXP(D88+'rhos computation'!$B$23^2/2)*NORMSDIST(-D88/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K88/Input!J88)</f>
-        <v>1.02801025470001E-007</v>
+        <v>1.02801025136934E-007</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>-0.25846030974732</v>
       </c>
       <c r="G88" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F88/'rhos computation'!$B$11)-EXP(F88+'rhos computation'!$B$11^2/2)*NORMSDIST(-F88/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M88/Input!L88)</f>
-        <v>3.50761198938954E-006</v>
+        <v>3.50761198905647E-006</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9257,14 +9606,14 @@
       </c>
       <c r="E89" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D89/'rhos computation'!$B$23)-EXP(D89+'rhos computation'!$B$23^2/2)*NORMSDIST(-D89/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K89/Input!J89)</f>
-        <v>2.09229151573731E-007</v>
+        <v>2.09229151212909E-007</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>-0.235097485676768</v>
       </c>
       <c r="G89" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F89/'rhos computation'!$B$11)-EXP(F89+'rhos computation'!$B$11^2/2)*NORMSDIST(-F89/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M89/Input!L89)</f>
-        <v>5.14018250019621E-007</v>
+        <v>5.14018250130643E-007</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9284,7 +9633,7 @@
       </c>
       <c r="G90" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F90/'rhos computation'!$B$11)-EXP(F90+'rhos computation'!$B$11^2/2)*NORMSDIST(-F90/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M90/Input!L90)</f>
-        <v>3.03170891402527E-006</v>
+        <v>3.03170891413629E-006</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,7 +9646,7 @@
       </c>
       <c r="E91" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D91/'rhos computation'!$B$23)-EXP(D91+'rhos computation'!$B$23^2/2)*NORMSDIST(-D91/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K91/Input!J91)</f>
-        <v>1.86195435417091E-007</v>
+        <v>1.86195435514236E-007</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>-0.193433790807939</v>
@@ -9317,14 +9666,14 @@
       </c>
       <c r="E92" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D92/'rhos computation'!$B$23)-EXP(D92+'rhos computation'!$B$23^2/2)*NORMSDIST(-D92/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K92/Input!J92)</f>
-        <v>2.18085589288874E-007</v>
+        <v>2.18085589399897E-007</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>-0.16205522656763</v>
       </c>
       <c r="G92" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F92/'rhos computation'!$B$11)-EXP(F92+'rhos computation'!$B$11^2/2)*NORMSDIST(-F92/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M92/Input!L92)</f>
-        <v>2.84243697673547E-006</v>
+        <v>2.84243697662445E-006</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9337,14 +9686,14 @@
       </c>
       <c r="E93" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D93/'rhos computation'!$B$23)-EXP(D93+'rhos computation'!$B$23^2/2)*NORMSDIST(-D93/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K93/Input!J93)</f>
-        <v>7.7812503371244E-008</v>
+        <v>7.78125032740995E-008</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>-0.1194617904741</v>
       </c>
       <c r="G93" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F93/'rhos computation'!$B$11)-EXP(F93+'rhos computation'!$B$11^2/2)*NORMSDIST(-F93/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M93/Input!L93)</f>
-        <v>2.0979634519358E-006</v>
+        <v>2.09796345182478E-006</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9364,7 +9713,7 @@
       </c>
       <c r="G94" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F94/'rhos computation'!$B$11)-EXP(F94+'rhos computation'!$B$11^2/2)*NORMSDIST(-F94/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M94/Input!L94)</f>
-        <v>2.77554295935456E-006</v>
+        <v>2.77554295946558E-006</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9377,14 +9726,14 @@
       </c>
       <c r="E95" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D95/'rhos computation'!$B$23)-EXP(D95+'rhos computation'!$B$23^2/2)*NORMSDIST(-D95/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K95/Input!J95)</f>
-        <v>1.16569223024277E-009</v>
+        <v>1.16569234126507E-009</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>-0.127606685704917</v>
       </c>
       <c r="G95" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F95/'rhos computation'!$B$11)-EXP(F95+'rhos computation'!$B$11^2/2)*NORMSDIST(-F95/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M95/Input!L95)</f>
-        <v>6.184117181951E-007</v>
+        <v>6.18411718084078E-007</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9397,14 +9746,14 @@
       </c>
       <c r="E96" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D96/'rhos computation'!$B$23)-EXP(D96+'rhos computation'!$B$23^2/2)*NORMSDIST(-D96/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K96/Input!J96)</f>
-        <v>5.09605550119696E-009</v>
+        <v>5.09605539017466E-009</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>-0.101431676291765</v>
       </c>
       <c r="G96" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-F96/'rhos computation'!$B$11)-EXP(F96+'rhos computation'!$B$11^2/2)*NORMSDIST(-F96/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M96/Input!L96)</f>
-        <v>7.56662679110565E-007</v>
+        <v>7.56662678777498E-007</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9417,7 +9766,7 @@
       </c>
       <c r="E97" s="0" t="n">
         <f aca="false">ABS((NORMSDIST(-D97/'rhos computation'!$B$23)-EXP(D97+'rhos computation'!$B$23^2/2)*NORMSDIST(-D97/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K97/Input!J97)</f>
-        <v>7.49838215130527E-009</v>
+        <v>7.49838226926647E-009</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>-0.0669492794013655</v>
@@ -9432,47 +9781,159 @@
         <f aca="false">Input!A98</f>
         <v>2015Q1</v>
       </c>
+      <c r="D98" s="0" t="n">
+        <v>-0.0364436337655108</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D98/'rhos computation'!$B$23)-EXP(D98+'rhos computation'!$B$23^2/2)*NORMSDIST(-D98/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K98/Input!J98)</f>
+        <v>6.32986281175196E-007</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>-0.189429289621952</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F98/'rhos computation'!$B$11)-EXP(F98+'rhos computation'!$B$11^2/2)*NORMSDIST(-F98/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M98/Input!L98)</f>
+        <v>1.36014667166395E-005</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="0" t="str">
         <f aca="false">Input!A99</f>
         <v>2015Q2</v>
       </c>
+      <c r="D99" s="0" t="n">
+        <v>-0.0257868286261227</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D99/'rhos computation'!$B$23)-EXP(D99+'rhos computation'!$B$23^2/2)*NORMSDIST(-D99/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K99/Input!J99)</f>
+        <v>1.95046223928907E-007</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>0.0729680158581142</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F99/'rhos computation'!$B$11)-EXP(F99+'rhos computation'!$B$11^2/2)*NORMSDIST(-F99/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M99/Input!L99)</f>
+        <v>1.97981130552194E-008</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="0" t="str">
         <f aca="false">Input!A100</f>
         <v>2015Q3</v>
       </c>
+      <c r="D100" s="0" t="n">
+        <v>-0.0116884376517287</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D100/'rhos computation'!$B$23)-EXP(D100+'rhos computation'!$B$23^2/2)*NORMSDIST(-D100/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K100/Input!J100)</f>
+        <v>2.30213746964941E-007</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>0.150672511856701</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F100/'rhos computation'!$B$11)-EXP(F100+'rhos computation'!$B$11^2/2)*NORMSDIST(-F100/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M100/Input!L100)</f>
+        <v>1.37585082755562E-007</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="0" t="str">
         <f aca="false">Input!A101</f>
         <v>2015Q4</v>
       </c>
+      <c r="D101" s="0" t="n">
+        <v>-0.0305110499443317</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D101/'rhos computation'!$B$23)-EXP(D101+'rhos computation'!$B$23^2/2)*NORMSDIST(-D101/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K101/Input!J101)</f>
+        <v>4.81459203269252E-008</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>0.144395001123945</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F101/'rhos computation'!$B$11)-EXP(F101+'rhos computation'!$B$11^2/2)*NORMSDIST(-F101/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M101/Input!L101)</f>
+        <v>1.39693342188912E-008</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="0" t="str">
         <f aca="false">Input!A102</f>
         <v>2016Q1</v>
       </c>
+      <c r="D102" s="0" t="n">
+        <v>-0.0103227997466206</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D102/'rhos computation'!$B$23)-EXP(D102+'rhos computation'!$B$23^2/2)*NORMSDIST(-D102/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K102/Input!J102)</f>
+        <v>7.93045434877015E-009</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>0.138107904131251</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F102/'rhos computation'!$B$11)-EXP(F102+'rhos computation'!$B$11^2/2)*NORMSDIST(-F102/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M102/Input!L102)</f>
+        <v>6.92394714410516E-008</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="0" t="str">
         <f aca="false">Input!A103</f>
         <v>2016Q2</v>
       </c>
+      <c r="D103" s="0" t="n">
+        <v>-0.00471899311234695</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D103/'rhos computation'!$B$23)-EXP(D103+'rhos computation'!$B$23^2/2)*NORMSDIST(-D103/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K103/Input!J103)</f>
+        <v>1.25509785738748E-006</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0.134303049533789</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F103/'rhos computation'!$B$11)-EXP(F103+'rhos computation'!$B$11^2/2)*NORMSDIST(-F103/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M103/Input!L103)</f>
+        <v>1.43906816098965E-008</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="0" t="str">
         <f aca="false">Input!A104</f>
         <v>2016Q3</v>
       </c>
+      <c r="D104" s="0" t="n">
+        <v>-0.00245629875374204</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D104/'rhos computation'!$B$23)-EXP(D104+'rhos computation'!$B$23^2/2)*NORMSDIST(-D104/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K104/Input!J104)</f>
+        <v>1.79907571340454E-008</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0.0753222787593963</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F104/'rhos computation'!$B$11)-EXP(F104+'rhos computation'!$B$11^2/2)*NORMSDIST(-F104/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M104/Input!L104)</f>
+        <v>1.49654297763174E-007</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="0" t="str">
         <f aca="false">Input!A105</f>
         <v>2016Q4</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0.0110340402922172</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-D105/'rhos computation'!$B$23)-EXP(D105+'rhos computation'!$B$23^2/2)*NORMSDIST(-D105/'rhos computation'!$B$23-'rhos computation'!$B$23))-Input!K105/Input!J105)</f>
+        <v>2.11467940473137E-006</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0.128532745950033</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <f aca="false">ABS((NORMSDIST(-F105/'rhos computation'!$B$11)-EXP(F105+'rhos computation'!$B$11^2/2)*NORMSDIST(-F105/'rhos computation'!$B$11-'rhos computation'!$B$11))-Input!M105/Input!L105)</f>
+        <v>5.30353138530892E-007</v>
       </c>
     </row>
   </sheetData>
@@ -9493,11 +9954,14 @@
   </sheetPr>
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.90816326530612"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="str">
@@ -9553,13 +10017,13 @@
         <v>Gc</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O1" s="0" t="s">
         <v>129</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="0" t="s">
         <v>131</v>
@@ -16290,69 +16754,69 @@
         <f aca="false">IF(Input!A98="","",Input!A98)</f>
         <v>2015Q1</v>
       </c>
-      <c r="B98" s="0" t="str">
+      <c r="B98" s="0" t="n">
         <f aca="false">IF(Input!B98="","",Input!B98)</f>
-        <v/>
-      </c>
-      <c r="C98" s="0" t="str">
+        <v>16354</v>
+      </c>
+      <c r="C98" s="0" t="n">
         <f aca="false">IF(Input!C98="","",Input!C98)</f>
-        <v/>
-      </c>
-      <c r="D98" s="0" t="str">
+        <v>15185.9</v>
+      </c>
+      <c r="D98" s="0" t="n">
         <f aca="false">IF(Input!D98="","",Input!D98)</f>
-        <v/>
-      </c>
-      <c r="E98" s="0" t="str">
+        <v>235.989</v>
+      </c>
+      <c r="E98" s="0" t="n">
         <f aca="false">IF(Input!E98="","",Input!E98)</f>
-        <v/>
-      </c>
-      <c r="F98" s="0" t="str">
+        <v>5.4</v>
+      </c>
+      <c r="F98" s="0" t="n">
         <f aca="false">IF(Input!F98="","",Input!F98)</f>
-        <v/>
-      </c>
-      <c r="G98" s="0" t="str">
+        <v>105.7878</v>
+      </c>
+      <c r="G98" s="0" t="n">
         <f aca="false">IF(Input!G98="","",Input!G98)</f>
-        <v/>
+        <v>168.19</v>
       </c>
       <c r="H98" s="0" t="n">
         <f aca="false">IF(Input!H98="","",Input!H98)</f>
         <v>114.23822048</v>
       </c>
-      <c r="I98" s="0" t="str">
+      <c r="I98" s="0" t="n">
         <f aca="false">IF(Input!I98="","",Input!I98)</f>
-        <v/>
-      </c>
-      <c r="J98" s="0" t="str">
+        <v>0.11</v>
+      </c>
+      <c r="J98" s="0" t="n">
         <f aca="false">IF(Input!J98="","",Input!J98)</f>
-        <v/>
-      </c>
-      <c r="K98" s="0" t="str">
+        <v>0.0623</v>
+      </c>
+      <c r="K98" s="0" t="n">
         <f aca="false">IF(Input!K98="","",Input!K98)</f>
-        <v/>
-      </c>
-      <c r="L98" s="0" t="str">
+        <v>0.0027</v>
+      </c>
+      <c r="L98" s="0" t="n">
         <f aca="false">IF(Input!L98="","",Input!L98)</f>
-        <v/>
-      </c>
-      <c r="M98" s="0" t="str">
+        <v>0.0141</v>
+      </c>
+      <c r="M98" s="0" t="n">
         <f aca="false">IF(Input!M98="","",Input!M98)</f>
-        <v/>
-      </c>
-      <c r="N98" s="0" t="str">
+        <v>0.0024</v>
+      </c>
+      <c r="N98" s="0" t="n">
         <f aca="false">IF(J98="","",-NORMSINV(J98))</f>
-        <v/>
-      </c>
-      <c r="O98" s="0" t="str">
+        <v>1.53574880555611</v>
+      </c>
+      <c r="O98" s="0" t="n">
         <f aca="false">IF('I comp'!D98="","",'I comp'!D98)</f>
-        <v/>
-      </c>
-      <c r="P98" s="0" t="str">
+        <v>-0.0364436337655108</v>
+      </c>
+      <c r="P98" s="0" t="n">
         <f aca="false">IF(L98="","",-NORMSINV(L98))</f>
-        <v/>
-      </c>
-      <c r="Q98" s="0" t="str">
+        <v>2.19449281388486</v>
+      </c>
+      <c r="Q98" s="0" t="n">
         <f aca="false">IF('I comp'!F98="","",'I comp'!F98)</f>
-        <v/>
+        <v>-0.189429289621952</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16360,69 +16824,69 @@
         <f aca="false">IF(Input!A99="","",Input!A99)</f>
         <v>2015Q2</v>
       </c>
-      <c r="B99" s="0" t="str">
+      <c r="B99" s="0" t="n">
         <f aca="false">IF(Input!B99="","",Input!B99)</f>
-        <v/>
-      </c>
-      <c r="C99" s="0" t="str">
+        <v>16459.2</v>
+      </c>
+      <c r="C99" s="0" t="n">
         <f aca="false">IF(Input!C99="","",Input!C99)</f>
-        <v/>
-      </c>
-      <c r="D99" s="0" t="str">
+        <v>15401.9</v>
+      </c>
+      <c r="D99" s="0" t="n">
         <f aca="false">IF(Input!D99="","",Input!D99)</f>
-        <v/>
-      </c>
-      <c r="E99" s="0" t="str">
+        <v>237.419</v>
+      </c>
+      <c r="E99" s="0" t="n">
         <f aca="false">IF(Input!E99="","",Input!E99)</f>
-        <v/>
-      </c>
-      <c r="F99" s="0" t="str">
+        <v>5.3</v>
+      </c>
+      <c r="F99" s="0" t="n">
         <f aca="false">IF(Input!F99="","",Input!F99)</f>
-        <v/>
-      </c>
-      <c r="G99" s="0" t="str">
+        <v>105.053</v>
+      </c>
+      <c r="G99" s="0" t="n">
         <f aca="false">IF(Input!G99="","",Input!G99)</f>
-        <v/>
+        <v>173.58</v>
       </c>
       <c r="H99" s="0" t="n">
         <f aca="false">IF(Input!H99="","",Input!H99)</f>
         <v>118.02852908</v>
       </c>
-      <c r="I99" s="0" t="str">
+      <c r="I99" s="0" t="n">
         <f aca="false">IF(Input!I99="","",Input!I99)</f>
-        <v/>
-      </c>
-      <c r="J99" s="0" t="str">
+        <v>0.13</v>
+      </c>
+      <c r="J99" s="0" t="n">
         <f aca="false">IF(Input!J99="","",Input!J99)</f>
-        <v/>
-      </c>
-      <c r="K99" s="0" t="str">
+        <v>0.058</v>
+      </c>
+      <c r="K99" s="0" t="n">
         <f aca="false">IF(Input!K99="","",Input!K99)</f>
-        <v/>
-      </c>
-      <c r="L99" s="0" t="str">
+        <v>0.0021</v>
+      </c>
+      <c r="L99" s="0" t="n">
         <f aca="false">IF(Input!L99="","",Input!L99)</f>
-        <v/>
-      </c>
-      <c r="M99" s="0" t="str">
+        <v>0.0127</v>
+      </c>
+      <c r="M99" s="0" t="n">
         <f aca="false">IF(Input!M99="","",Input!M99)</f>
-        <v/>
-      </c>
-      <c r="N99" s="0" t="str">
+        <v>0.0003</v>
+      </c>
+      <c r="N99" s="0" t="n">
         <f aca="false">IF(J99="","",-NORMSINV(J99))</f>
-        <v/>
-      </c>
-      <c r="O99" s="0" t="str">
+        <v>1.57178681650986</v>
+      </c>
+      <c r="O99" s="0" t="n">
         <f aca="false">IF('I comp'!D99="","",'I comp'!D99)</f>
-        <v/>
-      </c>
-      <c r="P99" s="0" t="str">
+        <v>-0.0257868286261227</v>
+      </c>
+      <c r="P99" s="0" t="n">
         <f aca="false">IF(L99="","",-NORMSINV(L99))</f>
-        <v/>
-      </c>
-      <c r="Q99" s="0" t="str">
+        <v>2.23526433557053</v>
+      </c>
+      <c r="Q99" s="0" t="n">
         <f aca="false">IF('I comp'!F99="","",'I comp'!F99)</f>
-        <v/>
+        <v>0.0729680158581142</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16430,69 +16894,69 @@
         <f aca="false">IF(Input!A100="","",Input!A100)</f>
         <v>2015Q3</v>
       </c>
-      <c r="B100" s="0" t="str">
+      <c r="B100" s="0" t="n">
         <f aca="false">IF(Input!B100="","",Input!B100)</f>
-        <v/>
-      </c>
-      <c r="C100" s="0" t="str">
+        <v>16539.9</v>
+      </c>
+      <c r="C100" s="0" t="n">
         <f aca="false">IF(Input!C100="","",Input!C100)</f>
-        <v/>
-      </c>
-      <c r="D100" s="0" t="str">
+        <v>15556.1</v>
+      </c>
+      <c r="D100" s="0" t="n">
         <f aca="false">IF(Input!D100="","",Input!D100)</f>
-        <v/>
-      </c>
-      <c r="E100" s="0" t="str">
+        <v>237.467</v>
+      </c>
+      <c r="E100" s="0" t="n">
         <f aca="false">IF(Input!E100="","",Input!E100)</f>
-        <v/>
-      </c>
-      <c r="F100" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F100" s="0" t="n">
         <f aca="false">IF(Input!F100="","",Input!F100)</f>
-        <v/>
-      </c>
-      <c r="G100" s="0" t="str">
+        <v>105.4536</v>
+      </c>
+      <c r="G100" s="0" t="n">
         <f aca="false">IF(Input!G100="","",Input!G100)</f>
-        <v/>
+        <v>175.19</v>
       </c>
       <c r="H100" s="0" t="n">
         <f aca="false">IF(Input!H100="","",Input!H100)</f>
         <v>120.54387832</v>
       </c>
-      <c r="I100" s="0" t="str">
+      <c r="I100" s="0" t="n">
         <f aca="false">IF(Input!I100="","",Input!I100)</f>
-        <v/>
-      </c>
-      <c r="J100" s="0" t="str">
+        <v>0.14</v>
+      </c>
+      <c r="J100" s="0" t="n">
         <f aca="false">IF(Input!J100="","",Input!J100)</f>
-        <v/>
-      </c>
-      <c r="K100" s="0" t="str">
+        <v>0.054</v>
+      </c>
+      <c r="K100" s="0" t="n">
         <f aca="false">IF(Input!K100="","",Input!K100)</f>
-        <v/>
-      </c>
-      <c r="L100" s="0" t="str">
+        <v>0.0015</v>
+      </c>
+      <c r="L100" s="0" t="n">
         <f aca="false">IF(Input!L100="","",Input!L100)</f>
-        <v/>
-      </c>
-      <c r="M100" s="0" t="str">
+        <v>0.0116</v>
+      </c>
+      <c r="M100" s="0" t="n">
         <f aca="false">IF(Input!M100="","",Input!M100)</f>
-        <v/>
-      </c>
-      <c r="N100" s="0" t="str">
+        <v>0.0001</v>
+      </c>
+      <c r="N100" s="0" t="n">
         <f aca="false">IF(J100="","",-NORMSINV(J100))</f>
-        <v/>
-      </c>
-      <c r="O100" s="0" t="str">
+        <v>1.60724789190022</v>
+      </c>
+      <c r="O100" s="0" t="n">
         <f aca="false">IF('I comp'!D100="","",'I comp'!D100)</f>
-        <v/>
-      </c>
-      <c r="P100" s="0" t="str">
+        <v>-0.0116884376517287</v>
+      </c>
+      <c r="P100" s="0" t="n">
         <f aca="false">IF(L100="","",-NORMSINV(L100))</f>
-        <v/>
-      </c>
-      <c r="Q100" s="0" t="str">
+        <v>2.27012499802052</v>
+      </c>
+      <c r="Q100" s="0" t="n">
         <f aca="false">IF('I comp'!F100="","",'I comp'!F100)</f>
-        <v/>
+        <v>0.150672511856701</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16500,69 +16964,69 @@
         <f aca="false">IF(Input!A101="","",Input!A101)</f>
         <v>2015Q4</v>
       </c>
-      <c r="B101" s="0" t="str">
+      <c r="B101" s="0" t="n">
         <f aca="false">IF(Input!B101="","",Input!B101)</f>
-        <v/>
-      </c>
-      <c r="C101" s="0" t="str">
+        <v>16575.7</v>
+      </c>
+      <c r="C101" s="0" t="n">
         <f aca="false">IF(Input!C101="","",Input!C101)</f>
-        <v/>
-      </c>
-      <c r="D101" s="0" t="str">
+        <v>15690.2</v>
+      </c>
+      <c r="D101" s="0" t="n">
         <f aca="false">IF(Input!D101="","",Input!D101)</f>
-        <v/>
-      </c>
-      <c r="E101" s="0" t="str">
+        <v>237.846</v>
+      </c>
+      <c r="E101" s="0" t="n">
         <f aca="false">IF(Input!E101="","",Input!E101)</f>
-        <v/>
-      </c>
-      <c r="F101" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F101" s="0" t="n">
         <f aca="false">IF(Input!F101="","",Input!F101)</f>
-        <v/>
-      </c>
-      <c r="G101" s="0" t="str">
+        <v>104.5657</v>
+      </c>
+      <c r="G101" s="0" t="n">
         <f aca="false">IF(Input!G101="","",Input!G101)</f>
-        <v/>
+        <v>175.29</v>
       </c>
       <c r="H101" s="0" t="n">
         <f aca="false">IF(Input!H101="","",Input!H101)</f>
         <v>122.71274946</v>
       </c>
-      <c r="I101" s="0" t="str">
+      <c r="I101" s="0" t="n">
         <f aca="false">IF(Input!I101="","",Input!I101)</f>
-        <v/>
-      </c>
-      <c r="J101" s="0" t="str">
+        <v>0.24</v>
+      </c>
+      <c r="J101" s="0" t="n">
         <f aca="false">IF(Input!J101="","",Input!J101)</f>
-        <v/>
-      </c>
-      <c r="K101" s="0" t="str">
+        <v>0.0509</v>
+      </c>
+      <c r="K101" s="0" t="n">
         <f aca="false">IF(Input!K101="","",Input!K101)</f>
-        <v/>
-      </c>
-      <c r="L101" s="0" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="L101" s="0" t="n">
         <f aca="false">IF(Input!L101="","",Input!L101)</f>
-        <v/>
-      </c>
-      <c r="M101" s="0" t="str">
+        <v>0.0106</v>
+      </c>
+      <c r="M101" s="0" t="n">
         <f aca="false">IF(Input!M101="","",Input!M101)</f>
-        <v/>
-      </c>
-      <c r="N101" s="0" t="str">
+        <v>0.0001</v>
+      </c>
+      <c r="N101" s="0" t="n">
         <f aca="false">IF(J101="","",-NORMSINV(J101))</f>
-        <v/>
-      </c>
-      <c r="O101" s="0" t="str">
+        <v>1.63618918112547</v>
+      </c>
+      <c r="O101" s="0" t="n">
         <f aca="false">IF('I comp'!D101="","",'I comp'!D101)</f>
-        <v/>
-      </c>
-      <c r="P101" s="0" t="str">
+        <v>-0.0305110499443317</v>
+      </c>
+      <c r="P101" s="0" t="n">
         <f aca="false">IF(L101="","",-NORMSINV(L101))</f>
-        <v/>
-      </c>
-      <c r="Q101" s="0" t="str">
+        <v>2.30440356635946</v>
+      </c>
+      <c r="Q101" s="0" t="n">
         <f aca="false">IF('I comp'!F101="","",'I comp'!F101)</f>
-        <v/>
+        <v>0.144395001123945</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16570,69 +17034,69 @@
         <f aca="false">IF(Input!A102="","",Input!A102)</f>
         <v>2016Q1</v>
       </c>
-      <c r="B102" s="0" t="str">
+      <c r="B102" s="0" t="n">
         <f aca="false">IF(Input!B102="","",Input!B102)</f>
-        <v/>
-      </c>
-      <c r="C102" s="0" t="str">
+        <v>16610</v>
+      </c>
+      <c r="C102" s="0" t="n">
         <f aca="false">IF(Input!C102="","",Input!C102)</f>
-        <v/>
-      </c>
-      <c r="D102" s="0" t="str">
+        <v>15740.1</v>
+      </c>
+      <c r="D102" s="0" t="n">
         <f aca="false">IF(Input!D102="","",Input!D102)</f>
-        <v/>
-      </c>
-      <c r="E102" s="0" t="str">
+        <v>238.078</v>
+      </c>
+      <c r="E102" s="0" t="n">
         <f aca="false">IF(Input!E102="","",Input!E102)</f>
-        <v/>
-      </c>
-      <c r="F102" s="0" t="str">
+        <v>5</v>
+      </c>
+      <c r="F102" s="0" t="n">
         <f aca="false">IF(Input!F102="","",Input!F102)</f>
-        <v/>
-      </c>
-      <c r="G102" s="0" t="str">
+        <v>104.1296</v>
+      </c>
+      <c r="G102" s="0" t="n">
         <f aca="false">IF(Input!G102="","",Input!G102)</f>
-        <v/>
+        <v>176.79</v>
       </c>
       <c r="H102" s="0" t="n">
         <f aca="false">IF(Input!H102="","",Input!H102)</f>
         <v>123.4305099</v>
       </c>
-      <c r="I102" s="0" t="str">
+      <c r="I102" s="0" t="n">
         <f aca="false">IF(Input!I102="","",Input!I102)</f>
-        <v/>
-      </c>
-      <c r="J102" s="0" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="J102" s="0" t="n">
         <f aca="false">IF(Input!J102="","",Input!J102)</f>
-        <v/>
-      </c>
-      <c r="K102" s="0" t="str">
+        <v>0.0481</v>
+      </c>
+      <c r="K102" s="0" t="n">
         <f aca="false">IF(Input!K102="","",Input!K102)</f>
-        <v/>
-      </c>
-      <c r="L102" s="0" t="str">
+        <v>0.0013</v>
+      </c>
+      <c r="L102" s="0" t="n">
         <f aca="false">IF(Input!L102="","",Input!L102)</f>
-        <v/>
-      </c>
-      <c r="M102" s="0" t="str">
+        <v>0.0097</v>
+      </c>
+      <c r="M102" s="0" t="n">
         <f aca="false">IF(Input!M102="","",Input!M102)</f>
-        <v/>
-      </c>
-      <c r="N102" s="0" t="str">
+        <v>0.0001</v>
+      </c>
+      <c r="N102" s="0" t="n">
         <f aca="false">IF(J102="","",-NORMSINV(J102))</f>
-        <v/>
-      </c>
-      <c r="O102" s="0" t="str">
+        <v>1.66356195557702</v>
+      </c>
+      <c r="O102" s="0" t="n">
         <f aca="false">IF('I comp'!D102="","",'I comp'!D102)</f>
-        <v/>
-      </c>
-      <c r="P102" s="0" t="str">
+        <v>-0.0103227997466206</v>
+      </c>
+      <c r="P102" s="0" t="n">
         <f aca="false">IF(L102="","",-NORMSINV(L102))</f>
-        <v/>
-      </c>
-      <c r="Q102" s="0" t="str">
+        <v>2.33775425291559</v>
+      </c>
+      <c r="Q102" s="0" t="n">
         <f aca="false">IF('I comp'!F102="","",'I comp'!F102)</f>
-        <v/>
+        <v>0.138107904131251</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16640,69 +17104,69 @@
         <f aca="false">IF(Input!A103="","",Input!A103)</f>
         <v>2016Q2</v>
       </c>
-      <c r="B103" s="0" t="str">
+      <c r="B103" s="0" t="n">
         <f aca="false">IF(Input!B103="","",Input!B103)</f>
-        <v/>
-      </c>
-      <c r="C103" s="0" t="str">
+        <v>16668.1</v>
+      </c>
+      <c r="C103" s="0" t="n">
         <f aca="false">IF(Input!C103="","",Input!C103)</f>
-        <v/>
-      </c>
-      <c r="D103" s="0" t="str">
+        <v>15929.4</v>
+      </c>
+      <c r="D103" s="0" t="n">
         <f aca="false">IF(Input!D103="","",Input!D103)</f>
-        <v/>
-      </c>
-      <c r="E103" s="0" t="str">
+        <v>239.842</v>
+      </c>
+      <c r="E103" s="0" t="n">
         <f aca="false">IF(Input!E103="","",Input!E103)</f>
-        <v/>
-      </c>
-      <c r="F103" s="0" t="str">
+        <v>4.9</v>
+      </c>
+      <c r="F103" s="0" t="n">
         <f aca="false">IF(Input!F103="","",Input!F103)</f>
-        <v/>
-      </c>
-      <c r="G103" s="0" t="str">
+        <v>103.9181</v>
+      </c>
+      <c r="G103" s="0" t="n">
         <f aca="false">IF(Input!G103="","",Input!G103)</f>
-        <v/>
+        <v>182.15</v>
       </c>
       <c r="H103" s="0" t="n">
         <f aca="false">IF(Input!H103="","",Input!H103)</f>
         <v>125.8291073</v>
       </c>
-      <c r="I103" s="0" t="str">
+      <c r="I103" s="0" t="n">
         <f aca="false">IF(Input!I103="","",Input!I103)</f>
-        <v/>
-      </c>
-      <c r="J103" s="0" t="str">
+        <v>0.38</v>
+      </c>
+      <c r="J103" s="0" t="n">
         <f aca="false">IF(Input!J103="","",Input!J103)</f>
-        <v/>
-      </c>
-      <c r="K103" s="0" t="str">
+        <v>0.0457</v>
+      </c>
+      <c r="K103" s="0" t="n">
         <f aca="false">IF(Input!K103="","",Input!K103)</f>
-        <v/>
-      </c>
-      <c r="L103" s="0" t="str">
+        <v>0.0011</v>
+      </c>
+      <c r="L103" s="0" t="n">
         <f aca="false">IF(Input!L103="","",Input!L103)</f>
-        <v/>
-      </c>
-      <c r="M103" s="0" t="str">
+        <v>0.0092</v>
+      </c>
+      <c r="M103" s="0" t="n">
         <f aca="false">IF(Input!M103="","",Input!M103)</f>
-        <v/>
-      </c>
-      <c r="N103" s="0" t="str">
+        <v>0.0001</v>
+      </c>
+      <c r="N103" s="0" t="n">
         <f aca="false">IF(J103="","",-NORMSINV(J103))</f>
-        <v/>
-      </c>
-      <c r="O103" s="0" t="str">
+        <v>1.68805849885612</v>
+      </c>
+      <c r="O103" s="0" t="n">
         <f aca="false">IF('I comp'!D103="","",'I comp'!D103)</f>
-        <v/>
-      </c>
-      <c r="P103" s="0" t="str">
+        <v>-0.00471899311234695</v>
+      </c>
+      <c r="P103" s="0" t="n">
         <f aca="false">IF(L103="","",-NORMSINV(L103))</f>
-        <v/>
-      </c>
-      <c r="Q103" s="0" t="str">
+        <v>2.35746882913576</v>
+      </c>
+      <c r="Q103" s="0" t="n">
         <f aca="false">IF('I comp'!F103="","",'I comp'!F103)</f>
-        <v/>
+        <v>0.134303049533789</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16710,69 +17174,69 @@
         <f aca="false">IF(Input!A104="","",Input!A104)</f>
         <v>2016Q3</v>
       </c>
-      <c r="B104" s="0" t="str">
+      <c r="B104" s="0" t="n">
         <f aca="false">IF(Input!B104="","",Input!B104)</f>
-        <v/>
-      </c>
-      <c r="C104" s="0" t="str">
+        <v>16812</v>
+      </c>
+      <c r="C104" s="0" t="n">
         <f aca="false">IF(Input!C104="","",Input!C104)</f>
-        <v/>
-      </c>
-      <c r="D104" s="0" t="str">
+        <v>16111.1</v>
+      </c>
+      <c r="D104" s="0" t="n">
         <f aca="false">IF(Input!D104="","",Input!D104)</f>
-        <v/>
-      </c>
-      <c r="E104" s="0" t="str">
+        <v>241.006</v>
+      </c>
+      <c r="E104" s="0" t="n">
         <f aca="false">IF(Input!E104="","",Input!E104)</f>
-        <v/>
-      </c>
-      <c r="F104" s="0" t="str">
+        <v>4.9</v>
+      </c>
+      <c r="F104" s="0" t="n">
         <f aca="false">IF(Input!F104="","",Input!F104)</f>
-        <v/>
-      </c>
-      <c r="G104" s="0" t="str">
+        <v>104.3576</v>
+      </c>
+      <c r="G104" s="0" t="n">
         <f aca="false">IF(Input!G104="","",Input!G104)</f>
-        <v/>
+        <v>184.45</v>
       </c>
       <c r="H104" s="0" t="n">
         <f aca="false">IF(Input!H104="","",Input!H104)</f>
         <v>126.50253469</v>
       </c>
-      <c r="I104" s="0" t="str">
+      <c r="I104" s="0" t="n">
         <f aca="false">IF(Input!I104="","",Input!I104)</f>
-        <v/>
-      </c>
-      <c r="J104" s="0" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="J104" s="0" t="n">
         <f aca="false">IF(Input!J104="","",Input!J104)</f>
-        <v/>
-      </c>
-      <c r="K104" s="0" t="str">
+        <v>0.0436</v>
+      </c>
+      <c r="K104" s="0" t="n">
         <f aca="false">IF(Input!K104="","",Input!K104)</f>
-        <v/>
-      </c>
-      <c r="L104" s="0" t="str">
+        <v>0.001</v>
+      </c>
+      <c r="L104" s="0" t="n">
         <f aca="false">IF(Input!L104="","",Input!L104)</f>
-        <v/>
-      </c>
-      <c r="M104" s="0" t="str">
+        <v>0.0087</v>
+      </c>
+      <c r="M104" s="0" t="n">
         <f aca="false">IF(Input!M104="","",Input!M104)</f>
-        <v/>
-      </c>
-      <c r="N104" s="0" t="str">
+        <v>0.0002</v>
+      </c>
+      <c r="N104" s="0" t="n">
         <f aca="false">IF(J104="","",-NORMSINV(J104))</f>
-        <v/>
-      </c>
-      <c r="O104" s="0" t="str">
+        <v>1.71035633646166</v>
+      </c>
+      <c r="O104" s="0" t="n">
         <f aca="false">IF('I comp'!D104="","",'I comp'!D104)</f>
-        <v/>
-      </c>
-      <c r="P104" s="0" t="str">
+        <v>-0.00245629875374204</v>
+      </c>
+      <c r="P104" s="0" t="n">
         <f aca="false">IF(L104="","",-NORMSINV(L104))</f>
-        <v/>
-      </c>
-      <c r="Q104" s="0" t="str">
+        <v>2.3781446232807</v>
+      </c>
+      <c r="Q104" s="0" t="n">
         <f aca="false">IF('I comp'!F104="","",'I comp'!F104)</f>
-        <v/>
+        <v>0.0753222787593963</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16780,69 +17244,69 @@
         <f aca="false">IF(Input!A105="","",Input!A105)</f>
         <v>2016Q4</v>
       </c>
-      <c r="B105" s="0" t="str">
+      <c r="B105" s="0" t="n">
         <f aca="false">IF(Input!B105="","",Input!B105)</f>
-        <v/>
-      </c>
-      <c r="C105" s="0" t="str">
+        <v>16889.1</v>
+      </c>
+      <c r="C105" s="0" t="n">
         <f aca="false">IF(Input!C105="","",Input!C105)</f>
-        <v/>
-      </c>
-      <c r="D105" s="0" t="str">
+        <v>16266.8</v>
+      </c>
+      <c r="D105" s="0" t="n">
         <f aca="false">IF(Input!D105="","",Input!D105)</f>
-        <v/>
-      </c>
-      <c r="E105" s="0" t="str">
+        <v>242.821</v>
+      </c>
+      <c r="E105" s="0" t="n">
         <f aca="false">IF(Input!E105="","",Input!E105)</f>
-        <v/>
-      </c>
-      <c r="F105" s="0" t="str">
+        <v>4.7</v>
+      </c>
+      <c r="F105" s="0" t="n">
         <f aca="false">IF(Input!F105="","",Input!F105)</f>
-        <v/>
-      </c>
-      <c r="G105" s="0" t="str">
+        <v>104.438</v>
+      </c>
+      <c r="G105" s="0" t="n">
         <f aca="false">IF(Input!G105="","",Input!G105)</f>
-        <v/>
+        <v>185.54</v>
       </c>
       <c r="H105" s="0" t="n">
         <f aca="false">IF(Input!H105="","",Input!H105)</f>
         <v>126.65812717</v>
       </c>
-      <c r="I105" s="0" t="str">
+      <c r="I105" s="0" t="n">
         <f aca="false">IF(Input!I105="","",Input!I105)</f>
-        <v/>
-      </c>
-      <c r="J105" s="0" t="str">
+        <v>0.54</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <f aca="false">IF(Input!J105="","",Input!J105)</f>
-        <v/>
-      </c>
-      <c r="K105" s="0" t="str">
+        <v>0.0415</v>
+      </c>
+      <c r="K105" s="0" t="n">
         <f aca="false">IF(Input!K105="","",Input!K105)</f>
-        <v/>
-      </c>
-      <c r="L105" s="0" t="str">
+        <v>0.0007</v>
+      </c>
+      <c r="L105" s="0" t="n">
         <f aca="false">IF(Input!L105="","",Input!L105)</f>
-        <v/>
-      </c>
-      <c r="M105" s="0" t="str">
+        <v>0.0085</v>
+      </c>
+      <c r="M105" s="0" t="n">
         <f aca="false">IF(Input!M105="","",Input!M105)</f>
-        <v/>
-      </c>
-      <c r="N105" s="0" t="str">
+        <v>0.0001</v>
+      </c>
+      <c r="N105" s="0" t="n">
         <f aca="false">IF(J105="","",-NORMSINV(J105))</f>
-        <v/>
-      </c>
-      <c r="O105" s="0" t="str">
+        <v>1.7335385038418</v>
+      </c>
+      <c r="O105" s="0" t="n">
         <f aca="false">IF('I comp'!D105="","",'I comp'!D105)</f>
-        <v/>
-      </c>
-      <c r="P105" s="0" t="str">
+        <v>0.0110340402922172</v>
+      </c>
+      <c r="P105" s="0" t="n">
         <f aca="false">IF(L105="","",-NORMSINV(L105))</f>
-        <v/>
-      </c>
-      <c r="Q105" s="0" t="str">
+        <v>2.38670773449225</v>
+      </c>
+      <c r="Q105" s="0" t="n">
         <f aca="false">IF('I comp'!F105="","",'I comp'!F105)</f>
-        <v/>
+        <v>0.128532745950033</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/work/preprocess.xlsx
+++ b/work/preprocess.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -505,7 +505,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -529,21 +529,144 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -551,8 +674,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -576,6 +714,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -586,24 +772,100 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -614,20 +876,20 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="H3:H105 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.9438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.63265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.265306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,13 +5155,13 @@
   </sheetPr>
   <dimension ref="A2:B97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H3:H105 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.265306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,13 +6138,13 @@
   </sheetPr>
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="H3:H105 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.265306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,13 +6939,13 @@
   </sheetPr>
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="H3:H105 B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.265306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,18 +8058,18 @@
   </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.265306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7824,7 +8086,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>133</v>
       </c>
@@ -7871,7 +8133,7 @@
         <v>2.03987693928043E-006</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="str">
         <f aca="false">Input!A4</f>
         <v>1991Q3</v>
@@ -7891,7 +8153,7 @@
         <v>1.92702709544967E-006</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>134</v>
       </c>
@@ -7918,7 +8180,7 @@
         <v>6.55685636063996E-007</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="str">
         <f aca="false">Input!A6</f>
         <v>1992Q1</v>
@@ -7938,7 +8200,7 @@
         <v>2.77453041375164E-006</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="str">
         <f aca="false">Input!A7</f>
         <v>1992Q2</v>
@@ -7958,7 +8220,7 @@
         <v>9.86529347102305E-008</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>135</v>
       </c>
@@ -7981,7 +8243,7 @@
         <v>3.05923322968527E-006</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>136</v>
       </c>
@@ -8004,7 +8266,7 @@
         <v>6.56659507308754E-006</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>137</v>
       </c>
@@ -8027,7 +8289,7 @@
         <v>2.39118874917343E-006</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="str">
         <f aca="false">Input!A11</f>
         <v>1993Q2</v>
@@ -8047,7 +8309,7 @@
         <v>5.5364453783735E-006</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>138</v>
       </c>
@@ -8070,7 +8332,7 @@
         <v>4.30015068025869E-007</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>139</v>
       </c>
@@ -8093,7 +8355,7 @@
         <v>2.55987118213952E-006</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>140</v>
       </c>
@@ -8116,7 +8378,7 @@
         <v>5.07507084163139E-007</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>141</v>
       </c>
@@ -8139,7 +8401,7 @@
         <v>2.42147509568746E-006</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>142</v>
       </c>
@@ -8162,7 +8424,7 @@
         <v>5.68668312150855E-006</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="str">
         <f aca="false">Input!A17</f>
         <v>1994Q4</v>
@@ -8182,7 +8444,7 @@
         <v>5.01450795387104E-007</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="str">
         <f aca="false">Input!A18</f>
         <v>1995Q1</v>
@@ -8202,7 +8464,7 @@
         <v>7.99123384437328E-007</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="str">
         <f aca="false">Input!A19</f>
         <v>1995Q2</v>
@@ -8222,7 +8484,7 @@
         <v>1.66681773136612E-006</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="str">
         <f aca="false">Input!A20</f>
         <v>1995Q3</v>
@@ -8242,7 +8504,7 @@
         <v>9.51520431549668E-006</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="str">
         <f aca="false">Input!A21</f>
         <v>1995Q4</v>
@@ -8262,7 +8524,7 @@
         <v>9.74653868335285E-007</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="str">
         <f aca="false">Input!A22</f>
         <v>1996Q1</v>
@@ -8282,7 +8544,7 @@
         <v>7.56122837258788E-006</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="str">
         <f aca="false">Input!A23</f>
         <v>1996Q2</v>
@@ -8302,7 +8564,7 @@
         <v>5.82251501156372E-006</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="str">
         <f aca="false">Input!A24</f>
         <v>1996Q3</v>
@@ -8322,7 +8584,7 @@
         <v>5.07354109585689E-006</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="str">
         <f aca="false">Input!A25</f>
         <v>1996Q4</v>
@@ -8342,7 +8604,7 @@
         <v>2.22555624138088E-007</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="str">
         <f aca="false">Input!A26</f>
         <v>1997Q1</v>
@@ -8362,7 +8624,7 @@
         <v>7.59057681952446E-006</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="str">
         <f aca="false">Input!A27</f>
         <v>1997Q2</v>
@@ -8382,7 +8644,7 @@
         <v>6.85058874877464E-007</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="str">
         <f aca="false">Input!A28</f>
         <v>1997Q3</v>
@@ -8402,7 +8664,7 @@
         <v>4.17158469445678E-006</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="str">
         <f aca="false">Input!A29</f>
         <v>1997Q4</v>
@@ -8422,7 +8684,7 @@
         <v>9.14875461763276E-007</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="str">
         <f aca="false">Input!A30</f>
         <v>1998Q1</v>
@@ -8442,7 +8704,7 @@
         <v>1.01489895579232E-006</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="str">
         <f aca="false">Input!A31</f>
         <v>1998Q2</v>
@@ -8462,7 +8724,7 @@
         <v>1.78066597476823E-006</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="str">
         <f aca="false">Input!A32</f>
         <v>1998Q3</v>
@@ -8482,7 +8744,7 @@
         <v>9.72675780609722E-006</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="str">
         <f aca="false">Input!A33</f>
         <v>1998Q4</v>
@@ -8502,7 +8764,7 @@
         <v>8.80905191960601E-006</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="str">
         <f aca="false">Input!A34</f>
         <v>1999Q1</v>
@@ -8522,7 +8784,7 @@
         <v>3.46040401860703E-007</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="str">
         <f aca="false">Input!A35</f>
         <v>1999Q2</v>
@@ -8542,7 +8804,7 @@
         <v>5.33919129741545E-009</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="str">
         <f aca="false">Input!A36</f>
         <v>1999Q3</v>
@@ -8562,7 +8824,7 @@
         <v>4.74403113095989E-006</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="str">
         <f aca="false">Input!A37</f>
         <v>1999Q4</v>
@@ -8582,7 +8844,7 @@
         <v>1.72833414247009E-011</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="str">
         <f aca="false">Input!A38</f>
         <v>2000Q1</v>
@@ -8602,7 +8864,7 @@
         <v>3.4386611184184E-006</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="str">
         <f aca="false">Input!A39</f>
         <v>2000Q2</v>
@@ -8622,7 +8884,7 @@
         <v>0.000211374379210857</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="str">
         <f aca="false">Input!A40</f>
         <v>2000Q3</v>
@@ -8642,7 +8904,7 @@
         <v>4.15990725821658E-006</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="str">
         <f aca="false">Input!A41</f>
         <v>2000Q4</v>
@@ -8662,7 +8924,7 @@
         <v>2.16925745671892E-007</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="str">
         <f aca="false">Input!A42</f>
         <v>2001Q1</v>
@@ -8682,7 +8944,7 @@
         <v>5.60950917299907E-007</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="str">
         <f aca="false">Input!A43</f>
         <v>2001Q2</v>
@@ -8702,7 +8964,7 @@
         <v>2.03349088845339E-007</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="str">
         <f aca="false">Input!A44</f>
         <v>2001Q3</v>
@@ -8722,7 +8984,7 @@
         <v>6.28647138678495E-007</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="str">
         <f aca="false">Input!A45</f>
         <v>2001Q4</v>
@@ -8742,7 +9004,7 @@
         <v>3.99482251550731E-006</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="str">
         <f aca="false">Input!A46</f>
         <v>2002Q1</v>
@@ -8762,7 +9024,7 @@
         <v>3.67830275380121E-006</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="str">
         <f aca="false">Input!A47</f>
         <v>2002Q2</v>
@@ -8782,7 +9044,7 @@
         <v>1.60609712365756E-006</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="str">
         <f aca="false">Input!A48</f>
         <v>2002Q3</v>
@@ -8802,7 +9064,7 @@
         <v>2.24666580903032E-006</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="str">
         <f aca="false">Input!A49</f>
         <v>2002Q4</v>
@@ -8822,7 +9084,7 @@
         <v>2.08586601094241E-006</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="str">
         <f aca="false">Input!A50</f>
         <v>2003Q1</v>
@@ -8842,7 +9104,7 @@
         <v>8.51520798345051E-007</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="str">
         <f aca="false">Input!A51</f>
         <v>2003Q2</v>
@@ -8862,7 +9124,7 @@
         <v>3.62054000110912E-006</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="str">
         <f aca="false">Input!A52</f>
         <v>2003Q3</v>
@@ -8882,7 +9144,7 @@
         <v>5.22136140576612E-006</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="str">
         <f aca="false">Input!A53</f>
         <v>2003Q4</v>
@@ -8902,7 +9164,7 @@
         <v>1.33553116668517E-005</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="str">
         <f aca="false">Input!A54</f>
         <v>2004Q1</v>
@@ -8922,7 +9184,7 @@
         <v>7.69107628312282E-006</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="str">
         <f aca="false">Input!A55</f>
         <v>2004Q2</v>
@@ -8942,7 +9204,7 @@
         <v>2.61384276534216E-006</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="str">
         <f aca="false">Input!A56</f>
         <v>2004Q3</v>
@@ -8962,7 +9224,7 @@
         <v>1.29319316782839E-005</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="str">
         <f aca="false">Input!A57</f>
         <v>2004Q4</v>
@@ -8982,7 +9244,7 @@
         <v>2.56590994915373E-006</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="str">
         <f aca="false">Input!A58</f>
         <v>2005Q1</v>
@@ -9002,7 +9264,7 @@
         <v>4.36017039306957E-006</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="str">
         <f aca="false">Input!A59</f>
         <v>2005Q2</v>
@@ -9022,7 +9284,7 @@
         <v>4.63008904325046E-006</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="str">
         <f aca="false">Input!A60</f>
         <v>2005Q3</v>
@@ -9042,7 +9304,7 @@
         <v>4.87270234261761E-006</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="str">
         <f aca="false">Input!A61</f>
         <v>2005Q4</v>
@@ -9062,7 +9324,7 @@
         <v>1.36237302635483E-005</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="str">
         <f aca="false">Input!A62</f>
         <v>2006Q1</v>
@@ -9082,7 +9344,7 @@
         <v>3.28697970655711E-006</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="str">
         <f aca="false">Input!A63</f>
         <v>2006Q2</v>
@@ -9102,7 +9364,7 @@
         <v>5.2298938411216E-006</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="str">
         <f aca="false">Input!A64</f>
         <v>2006Q3</v>
@@ -9122,7 +9384,7 @@
         <v>7.03942693316972E-006</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="str">
         <f aca="false">Input!A65</f>
         <v>2006Q4</v>
@@ -9142,7 +9404,7 @@
         <v>8.83511090292444E-006</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="str">
         <f aca="false">Input!A66</f>
         <v>2007Q1</v>
@@ -9162,7 +9424,7 @@
         <v>6.71903551796582E-007</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="str">
         <f aca="false">Input!A67</f>
         <v>2007Q2</v>
@@ -9182,7 +9444,7 @@
         <v>4.3799070060524E-006</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="str">
         <f aca="false">Input!A68</f>
         <v>2007Q3</v>
@@ -9202,7 +9464,7 @@
         <v>4.1002677536317E-006</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="str">
         <f aca="false">Input!A69</f>
         <v>2007Q4</v>
@@ -9222,7 +9484,7 @@
         <v>7.4210852487322E-006</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="str">
         <f aca="false">Input!A70</f>
         <v>2008Q1</v>
@@ -9242,7 +9504,7 @@
         <v>3.45450926210189E-005</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="str">
         <f aca="false">Input!A71</f>
         <v>2008Q2</v>
@@ -9262,7 +9524,7 @@
         <v>2.5496028893679E-007</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="str">
         <f aca="false">Input!A72</f>
         <v>2008Q3</v>
@@ -9282,7 +9544,7 @@
         <v>1.48889638096339E-006</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="str">
         <f aca="false">Input!A73</f>
         <v>2008Q4</v>
@@ -9302,7 +9564,7 @@
         <v>1.5360373472606E-006</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="str">
         <f aca="false">Input!A74</f>
         <v>2009Q1</v>
@@ -9322,7 +9584,7 @@
         <v>1.41998846214797E-006</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="str">
         <f aca="false">Input!A75</f>
         <v>2009Q2</v>
@@ -9342,7 +9604,7 @@
         <v>1.24480443708386E-006</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="0" t="str">
         <f aca="false">Input!A76</f>
         <v>2009Q3</v>
@@ -9362,7 +9624,7 @@
         <v>6.08799808710092E-006</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="str">
         <f aca="false">Input!A77</f>
         <v>2009Q4</v>
@@ -9382,7 +9644,7 @@
         <v>4.34224251344428E-006</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="0" t="str">
         <f aca="false">Input!A78</f>
         <v>2010Q1</v>
@@ -9402,7 +9664,7 @@
         <v>1.58671117709841E-005</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="str">
         <f aca="false">Input!A79</f>
         <v>2010Q2</v>
@@ -9422,7 +9684,7 @@
         <v>6.40361687370694E-006</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="str">
         <f aca="false">Input!A80</f>
         <v>2010Q3</v>
@@ -9442,7 +9704,7 @@
         <v>8.24420987033392E-009</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="str">
         <f aca="false">Input!A81</f>
         <v>2010Q4</v>
@@ -9462,7 +9724,7 @@
         <v>9.5876749262036E-007</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="0" t="str">
         <f aca="false">Input!A82</f>
         <v>2011Q1</v>
@@ -9482,7 +9744,7 @@
         <v>9.7936845039337E-007</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="0" t="str">
         <f aca="false">Input!A83</f>
         <v>2011Q2</v>
@@ -9502,7 +9764,7 @@
         <v>8.00028107428297E-007</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="0" t="str">
         <f aca="false">Input!A84</f>
         <v>2011Q3</v>
@@ -9522,7 +9784,7 @@
         <v>6.04574097040622E-006</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="0" t="str">
         <f aca="false">Input!A85</f>
         <v>2011Q4</v>
@@ -9542,7 +9804,7 @@
         <v>9.15315318261722E-006</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="0" t="str">
         <f aca="false">Input!A86</f>
         <v>2012Q1</v>
@@ -9562,7 +9824,7 @@
         <v>1.91356228473882E-006</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="str">
         <f aca="false">Input!A87</f>
         <v>2012Q2</v>
@@ -9582,7 +9844,7 @@
         <v>1.50294694281627E-006</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="0" t="str">
         <f aca="false">Input!A88</f>
         <v>2012Q3</v>
@@ -9602,7 +9864,7 @@
         <v>3.50761198894545E-006</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="0" t="str">
         <f aca="false">Input!A89</f>
         <v>2012Q4</v>
@@ -9622,7 +9884,7 @@
         <v>5.14018250130643E-007</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="str">
         <f aca="false">Input!A90</f>
         <v>2013Q1</v>
@@ -9642,7 +9904,7 @@
         <v>3.03170891413629E-006</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="str">
         <f aca="false">Input!A91</f>
         <v>2013Q2</v>
@@ -9662,7 +9924,7 @@
         <v>8.64228594243954E-007</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="str">
         <f aca="false">Input!A92</f>
         <v>2013Q3</v>
@@ -9682,7 +9944,7 @@
         <v>2.8424369765967E-006</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="0" t="str">
         <f aca="false">Input!A93</f>
         <v>2013Q4</v>
@@ -9702,7 +9964,7 @@
         <v>2.09796345185254E-006</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="0" t="str">
         <f aca="false">Input!A94</f>
         <v>2014Q1</v>
@@ -9722,7 +9984,7 @@
         <v>2.77554295943783E-006</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="0" t="str">
         <f aca="false">Input!A95</f>
         <v>2014Q2</v>
@@ -9742,7 +10004,7 @@
         <v>6.18411718084078E-007</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="0" t="str">
         <f aca="false">Input!A96</f>
         <v>2014Q3</v>
@@ -9762,7 +10024,7 @@
         <v>7.56662678777498E-007</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="0" t="str">
         <f aca="false">Input!A97</f>
         <v>2014Q4</v>
@@ -9782,7 +10044,7 @@
         <v>2.42601180955315E-006</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="0" t="str">
         <f aca="false">Input!A98</f>
         <v>2015Q1</v>
@@ -9802,7 +10064,7 @@
         <v>1.36014667166118E-005</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="0" t="str">
         <f aca="false">Input!A99</f>
         <v>2015Q2</v>
@@ -9822,7 +10084,7 @@
         <v>1.97981130517499E-008</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="0" t="str">
         <f aca="false">Input!A100</f>
         <v>2015Q3</v>
@@ -9842,7 +10104,7 @@
         <v>1.37585082753827E-007</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="0" t="str">
         <f aca="false">Input!A101</f>
         <v>2015Q4</v>
@@ -9862,7 +10124,7 @@
         <v>1.39693341633801E-008</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="0" t="str">
         <f aca="false">Input!A102</f>
         <v>2016Q1</v>
@@ -9882,7 +10144,7 @@
         <v>6.9239471526053E-008</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="0" t="str">
         <f aca="false">Input!A103</f>
         <v>2016Q2</v>
@@ -9902,7 +10164,7 @@
         <v>1.4390681582141E-008</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="0" t="str">
         <f aca="false">Input!A104</f>
         <v>2016Q3</v>
@@ -9922,7 +10184,7 @@
         <v>1.49654297815216E-007</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="0" t="str">
         <f aca="false">Input!A105</f>
         <v>2016Q4</v>
@@ -9960,13 +10222,13 @@
   </sheetPr>
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H3:H105 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,13 +11297,13 @@
   </sheetPr>
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H94" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L105" activeCellId="0" sqref="L105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L58" activeCellId="1" sqref="H3:H105 L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.265306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/work/preprocess.xlsx
+++ b/work/preprocess.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="149">
   <si>
     <t xml:space="preserve">obs</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGDr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGDc</t>
   </si>
   <si>
     <t xml:space="preserve">1991Q1</t>
@@ -874,10 +880,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="H3:H105 A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -885,7 +891,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.42"/>
@@ -932,10 +938,16 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>134.8</v>
@@ -970,10 +982,18 @@
       <c r="M2" s="0" t="n">
         <v>0.0277274</v>
       </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">K2/J2</f>
+        <v>0.0641480231790508</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">M2/L2</f>
+        <v>0.229912106135987</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>136</v>
@@ -1008,10 +1028,18 @@
       <c r="M3" s="0" t="n">
         <v>0.0277931</v>
       </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">K3/J3</f>
+        <v>0.0571136906816151</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">M3/L3</f>
+        <v>0.23375189234651</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>137</v>
@@ -1046,10 +1074,18 @@
       <c r="M4" s="0" t="n">
         <v>0.0289403</v>
       </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">K4/J4</f>
+        <v>0.065653213958336</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">M4/L4</f>
+        <v>0.250132238547969</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>138.2</v>
@@ -1084,10 +1120,18 @@
       <c r="M5" s="0" t="n">
         <v>0.0319692</v>
       </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">K5/J5</f>
+        <v>0.0623641198699905</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">M5/L5</f>
+        <v>0.278477351916376</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>139.1</v>
@@ -1122,10 +1166,18 @@
       <c r="M6" s="0" t="n">
         <v>0.0299742</v>
       </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">K6/J6</f>
+        <v>0.0644186767889636</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">M6/L6</f>
+        <v>0.272989071038251</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>140.1</v>
@@ -1160,10 +1212,18 @@
       <c r="M7" s="0" t="n">
         <v>0.0260266</v>
       </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">K7/J7</f>
+        <v>0.0665814365508527</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">M7/L7</f>
+        <v>0.246931688804554</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>141.1</v>
@@ -1198,10 +1258,18 @@
       <c r="M8" s="0" t="n">
         <v>0.0337844</v>
       </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">K8/J8</f>
+        <v>0.0926457451688447</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">M8/L8</f>
+        <v>0.326104247104247</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>142.3</v>
@@ -1236,10 +1304,18 @@
       <c r="M9" s="0" t="n">
         <v>0.0294025</v>
       </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">K9/J9</f>
+        <v>0.0900126280848607</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">M9/L9</f>
+        <v>0.301564102564103</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>143.3</v>
@@ -1274,10 +1350,18 @@
       <c r="M10" s="0" t="n">
         <v>0.0238994</v>
       </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">K10/J10</f>
+        <v>0.0738484419989889</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">M10/L10</f>
+        <v>0.269744920993228</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>144.3</v>
@@ -1312,10 +1396,18 @@
       <c r="M11" s="0" t="n">
         <v>0.021557</v>
       </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">K11/J11</f>
+        <v>0.0912377025215764</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">M11/L11</f>
+        <v>0.259722891566265</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>145</v>
@@ -1350,10 +1442,18 @@
       <c r="M12" s="0" t="n">
         <v>0.0183645</v>
       </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">K12/J12</f>
+        <v>0.07423180219628</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">M12/L12</f>
+        <v>0.243238410596026</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>146.3</v>
@@ -1388,10 +1488,18 @@
       <c r="M13" s="0" t="n">
         <v>0.0146246</v>
       </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">K13/J13</f>
+        <v>0.073225548208923</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">M13/L13</f>
+        <v>0.216982195845697</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>147.1</v>
@@ -1426,10 +1534,18 @@
       <c r="M14" s="0" t="n">
         <v>0.014019</v>
       </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">K14/J14</f>
+        <v>0.0724165458094231</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">M14/L14</f>
+        <v>0.229819672131148</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>147.9</v>
@@ -1464,10 +1580,18 @@
       <c r="M15" s="0" t="n">
         <v>0.0112213</v>
       </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">K15/J15</f>
+        <v>0.0735082170486913</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">M15/L15</f>
+        <v>0.205142595978062</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>149.3</v>
@@ -1502,10 +1626,18 @@
       <c r="M16" s="0" t="n">
         <v>0.0091394</v>
       </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">K16/J16</f>
+        <v>0.0594479274685339</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">M16/L16</f>
+        <v>0.188053497942387</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>150.1</v>
@@ -1540,10 +1672,18 @@
       <c r="M17" s="0" t="n">
         <v>0.0082286</v>
       </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">K17/J17</f>
+        <v>0.0714118217437765</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">M17/L17</f>
+        <v>0.189599078341014</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>151.2</v>
@@ -1578,10 +1718,18 @@
       <c r="M18" s="0" t="n">
         <v>0.0074365</v>
       </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">K18/J18</f>
+        <v>0.060841141116216</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">M18/L18</f>
+        <v>0.170954022988506</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>152.4</v>
@@ -1616,10 +1764,18 @@
       <c r="M19" s="0" t="n">
         <v>0.0082311</v>
       </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">K19/J19</f>
+        <v>0.0555285938508055</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">M19/L19</f>
+        <v>0.201249388753056</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>153.1</v>
@@ -1654,10 +1810,18 @@
       <c r="M20" s="0" t="n">
         <v>0.0056415</v>
       </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">K20/J20</f>
+        <v>0.058131688126228</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">M20/L20</f>
+        <v>0.146532467532468</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>153.9</v>
@@ -1692,10 +1856,18 @@
       <c r="M21" s="0" t="n">
         <v>0.0047097</v>
       </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">K21/J21</f>
+        <v>0.0490326478447775</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">M21/L21</f>
+        <v>0.137309037900875</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>155.5</v>
@@ -1730,10 +1902,18 @@
       <c r="M22" s="0" t="n">
         <v>0.0047465</v>
       </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">K22/J22</f>
+        <v>0.0534582046060136</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">M22/L22</f>
+        <v>0.141686567164179</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>156.7</v>
@@ -1768,10 +1948,18 @@
       <c r="M23" s="0" t="n">
         <v>0.003828</v>
       </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">K23/J23</f>
+        <v>0.0433050159089175</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">M23/L23</f>
+        <v>0.119625</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>157.7</v>
@@ -1806,10 +1994,18 @@
       <c r="M24" s="0" t="n">
         <v>0.0036411</v>
       </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">K24/J24</f>
+        <v>0.04333827631573</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">M24/L24</f>
+        <v>0.117834951456311</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>159.1</v>
@@ -1844,10 +2040,18 @@
       <c r="M25" s="0" t="n">
         <v>0.0025673</v>
       </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">K25/J25</f>
+        <v>0.0342520150098808</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">M25/L25</f>
+        <v>0.0894529616724739</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>159.8</v>
@@ -1882,10 +2086,18 @@
       <c r="M26" s="0" t="n">
         <v>0.0024777</v>
       </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">K26/J26</f>
+        <v>0.0423593161071526</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">M26/L26</f>
+        <v>0.0942091254752852</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>160.2</v>
@@ -1920,10 +2132,18 @@
       <c r="M27" s="0" t="n">
         <v>0.0019881</v>
       </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">K27/J27</f>
+        <v>0.0430006010016695</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">M27/L27</f>
+        <v>0.08318410041841</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>161.2</v>
@@ -1958,10 +2178,18 @@
       <c r="M28" s="0" t="n">
         <v>0.0018933</v>
       </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">K28/J28</f>
+        <v>0.0393049935886689</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">M28/L28</f>
+        <v>0.0834052863436123</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>161.8</v>
@@ -1999,10 +2227,18 @@
       <c r="M29" s="0" t="n">
         <v>0.0017617</v>
       </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">K29/J29</f>
+        <v>0.0355199467716448</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">M29/L29</f>
+        <v>0.079</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>162</v>
@@ -2040,10 +2276,18 @@
       <c r="M30" s="0" t="n">
         <v>0.0019906</v>
       </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">K30/J30</f>
+        <v>0.0408374263608237</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">M30/L30</f>
+        <v>0.093018691588785</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>162.8</v>
@@ -2081,10 +2325,18 @@
       <c r="M31" s="0" t="n">
         <v>0.0015116</v>
       </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">K31/J31</f>
+        <v>0.0366218906185109</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">M31/L31</f>
+        <v>0.0740980392156863</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>163.5</v>
@@ -2122,10 +2374,18 @@
       <c r="M32" s="0" t="n">
         <v>0.0016563</v>
       </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">K32/J32</f>
+        <v>0.0366419083736708</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">M32/L32</f>
+        <v>0.0840761421319797</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>164.4</v>
@@ -2163,10 +2423,18 @@
       <c r="M33" s="0" t="n">
         <v>0.0017879</v>
       </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">K33/J33</f>
+        <v>0.0338011760511396</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">M33/L33</f>
+        <v>0.0889502487562189</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>164.8</v>
@@ -2204,10 +2472,18 @@
       <c r="M34" s="0" t="n">
         <v>0.0016852</v>
       </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">K34/J34</f>
+        <v>0.0512915371902595</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">M34/L34</f>
+        <v>0.0896382978723404</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>166</v>
@@ -2245,10 +2521,18 @@
       <c r="M35" s="0" t="n">
         <v>0.0017457</v>
       </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">K35/J35</f>
+        <v>0.0570653080329042</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">M35/L35</f>
+        <v>0.0953934426229508</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>167.8</v>
@@ -2286,10 +2570,18 @@
       <c r="M36" s="0" t="n">
         <v>0.0016403</v>
       </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">K36/J36</f>
+        <v>0.0674157303370787</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">M36/L36</f>
+        <v>0.104477707006369</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>168.8</v>
@@ -2327,10 +2619,18 @@
       <c r="M37" s="0" t="n">
         <v>0.0014534</v>
       </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">K37/J37</f>
+        <v>0.0664905900777745</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">M37/L37</f>
+        <v>0.0995479452054794</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>171</v>
@@ -2368,10 +2668,18 @@
       <c r="M38" s="0" t="n">
         <v>0.0015929</v>
       </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">K38/J38</f>
+        <v>0.0655366549835247</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">M38/L38</f>
+        <v>0.105490066225166</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>172.2</v>
@@ -2409,10 +2717,18 @@
       <c r="M39" s="0" t="n">
         <v>0.0017376</v>
       </c>
+      <c r="N39" s="0" t="n">
+        <f aca="false">K39/J39</f>
+        <v>0.0545407484482821</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">M39/L39</f>
+        <v>0.120666666666667</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>173.6</v>
@@ -2450,10 +2766,18 @@
       <c r="M40" s="0" t="n">
         <v>0.0017692</v>
       </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">K40/J40</f>
+        <v>0.0609454163546721</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="false">M40/L40</f>
+        <v>0.119540540540541</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>174.6</v>
@@ -2491,10 +2815,18 @@
       <c r="M41" s="0" t="n">
         <v>0.0018008</v>
       </c>
+      <c r="N41" s="0" t="n">
+        <f aca="false">K41/J41</f>
+        <v>0.0614114622408461</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">M41/L41</f>
+        <v>0.118473684210526</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>176.1</v>
@@ -2532,10 +2864,18 @@
       <c r="M42" s="0" t="n">
         <v>0.002264</v>
       </c>
+      <c r="N42" s="0" t="n">
+        <f aca="false">K42/J42</f>
+        <v>0.0613337452354884</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">M42/L42</f>
+        <v>0.1415</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>177.7</v>
@@ -2573,10 +2913,18 @@
       <c r="M43" s="0" t="n">
         <v>0.0023667</v>
       </c>
+      <c r="N43" s="0" t="n">
+        <f aca="false">K43/J43</f>
+        <v>0.0659285285799983</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">M43/L43</f>
+        <v>0.136803468208092</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>178.1</v>
@@ -2614,10 +2962,18 @@
       <c r="M44" s="0" t="n">
         <v>0.0028168</v>
       </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">K44/J44</f>
+        <v>0.201052094447279</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">M44/L44</f>
+        <v>0.146708333333333</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>177.4</v>
@@ -2655,10 +3011,18 @@
       <c r="M45" s="0" t="n">
         <v>0.0032247</v>
       </c>
+      <c r="N45" s="0" t="n">
+        <f aca="false">K45/J45</f>
+        <v>0.0850082311033399</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">M45/L45</f>
+        <v>0.167082901554404</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>178.5</v>
@@ -2696,10 +3060,18 @@
       <c r="M46" s="0" t="n">
         <v>0.0030062</v>
       </c>
+      <c r="N46" s="0" t="n">
+        <f aca="false">K46/J46</f>
+        <v>0.0715687185731149</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">M46/L46</f>
+        <v>0.168887640449438</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>179.6</v>
@@ -2737,10 +3109,18 @@
       <c r="M47" s="0" t="n">
         <v>0.0027904</v>
       </c>
+      <c r="N47" s="0" t="n">
+        <f aca="false">K47/J47</f>
+        <v>0.0782468389990444</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">M47/L47</f>
+        <v>0.158545454545455</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>180.8</v>
@@ -2778,10 +3158,18 @@
       <c r="M48" s="0" t="n">
         <v>0.0027351</v>
       </c>
+      <c r="N48" s="0" t="n">
+        <f aca="false">K48/J48</f>
+        <v>0.070720518966595</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">M48/L48</f>
+        <v>0.161840236686391</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>181.8</v>
@@ -2819,10 +3207,18 @@
       <c r="M49" s="0" t="n">
         <v>0.0027719</v>
       </c>
+      <c r="N49" s="0" t="n">
+        <f aca="false">K49/J49</f>
+        <v>0.0710711716667372</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">M49/L49</f>
+        <v>0.172167701863354</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>183.9</v>
@@ -2860,10 +3256,18 @@
       <c r="M50" s="0" t="n">
         <v>0.0025193</v>
       </c>
+      <c r="N50" s="0" t="n">
+        <f aca="false">K50/J50</f>
+        <v>0.0753208706088287</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">M50/L50</f>
+        <v>0.15085628742515</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>183.1</v>
@@ -2901,10 +3305,18 @@
       <c r="M51" s="0" t="n">
         <v>0.0027719</v>
       </c>
+      <c r="N51" s="0" t="n">
+        <f aca="false">K51/J51</f>
+        <v>0.0820568703658391</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">M51/L51</f>
+        <v>0.172167701863354</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>185.1</v>
@@ -2942,10 +3354,18 @@
       <c r="M52" s="0" t="n">
         <v>0.0025692</v>
       </c>
+      <c r="N52" s="0" t="n">
+        <f aca="false">K52/J52</f>
+        <v>0.0749061168484148</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">M52/L52</f>
+        <v>0.173594594594595</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>185.5</v>
@@ -2983,10 +3403,18 @@
       <c r="M53" s="0" t="n">
         <v>0.002106</v>
       </c>
+      <c r="N53" s="0" t="n">
+        <f aca="false">K53/J53</f>
+        <v>0.190414025922536</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">M53/L53</f>
+        <v>0.150428571428571</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>187.1</v>
@@ -3024,10 +3452,18 @@
       <c r="M54" s="0" t="n">
         <v>0.0018875</v>
       </c>
+      <c r="N54" s="0" t="n">
+        <f aca="false">K54/J54</f>
+        <v>0.0784735257435846</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">M54/L54</f>
+        <v>0.151</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>188.9</v>
@@ -3065,10 +3501,18 @@
       <c r="M55" s="0" t="n">
         <v>0.0016954</v>
       </c>
+      <c r="N55" s="0" t="n">
+        <f aca="false">K55/J55</f>
+        <v>0.0687439428136566</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">M55/L55</f>
+        <v>0.134555555555556</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>189.8</v>
@@ -3106,10 +3550,18 @@
       <c r="M56" s="0" t="n">
         <v>0.0015401</v>
       </c>
+      <c r="N56" s="0" t="n">
+        <f aca="false">K56/J56</f>
+        <v>0.056721859545005</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false">M56/L56</f>
+        <v>0.129420168067227</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>191.7</v>
@@ -3147,10 +3599,18 @@
       <c r="M57" s="0" t="n">
         <v>0.001469</v>
       </c>
+      <c r="N57" s="0" t="n">
+        <f aca="false">K57/J57</f>
+        <v>0.0646475014037058</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false">M57/L57</f>
+        <v>0.133545454545455</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>193.1</v>
@@ -3188,10 +3648,18 @@
       <c r="M58" s="0" t="n">
         <v>0.0014848</v>
       </c>
+      <c r="N58" s="0" t="n">
+        <f aca="false">K58/J58</f>
+        <v>0.0558833752672377</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="false">M58/L58</f>
+        <v>0.132571428571429</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>193.7</v>
@@ -3229,10 +3697,18 @@
       <c r="M59" s="0" t="n">
         <v>0.0013295</v>
       </c>
+      <c r="N59" s="0" t="n">
+        <f aca="false">K59/J59</f>
+        <v>0.0514279563816405</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="false">M59/L59</f>
+        <v>0.126619047619048</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>198.8</v>
@@ -3270,10 +3746,18 @@
       <c r="M60" s="0" t="n">
         <v>0.0014453</v>
       </c>
+      <c r="N60" s="0" t="n">
+        <f aca="false">K60/J60</f>
+        <v>0.0507562172557862</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <f aca="false">M60/L60</f>
+        <v>0.13507476635514</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>198.1</v>
@@ -3311,10 +3795,18 @@
       <c r="M61" s="0" t="n">
         <v>0.0009137</v>
       </c>
+      <c r="N61" s="0" t="n">
+        <f aca="false">K61/J61</f>
+        <v>0.0427768709470489</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <f aca="false">M61/L61</f>
+        <v>0.0887087378640777</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>199.7</v>
@@ -3352,10 +3844,18 @@
       <c r="M62" s="0" t="n">
         <v>0.0013058</v>
       </c>
+      <c r="N62" s="0" t="n">
+        <f aca="false">K62/J62</f>
+        <v>0.0559571559686774</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <f aca="false">M62/L62</f>
+        <v>0.128019607843137</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>201.8</v>
@@ -3393,10 +3893,18 @@
       <c r="M63" s="0" t="n">
         <v>0.0011058</v>
       </c>
+      <c r="N63" s="0" t="n">
+        <f aca="false">K63/J63</f>
+        <v>0.0557586506582548</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <f aca="false">M63/L63</f>
+        <v>0.108411764705882</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>202.8</v>
@@ -3434,10 +3942,18 @@
       <c r="M64" s="0" t="n">
         <v>0.0015927</v>
       </c>
+      <c r="N64" s="0" t="n">
+        <f aca="false">K64/J64</f>
+        <v>0.056992315287344</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <f aca="false">M64/L64</f>
+        <v>0.140946902654867</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>203.1</v>
@@ -3475,10 +3991,18 @@
       <c r="M65" s="0" t="n">
         <v>0.0015428</v>
       </c>
+      <c r="N65" s="0" t="n">
+        <f aca="false">K65/J65</f>
+        <v>0.0612143860993995</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <f aca="false">M65/L65</f>
+        <v>0.116878787878788</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>205.288</v>
@@ -3516,10 +4040,18 @@
       <c r="M66" s="0" t="n">
         <v>0.0024297</v>
       </c>
+      <c r="N66" s="0" t="n">
+        <f aca="false">K66/J66</f>
+        <v>0.0737720139740321</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <f aca="false">M66/L66</f>
+        <v>0.169909090909091</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>207.234</v>
@@ -3557,10 +4089,18 @@
       <c r="M67" s="0" t="n">
         <v>0.0023877</v>
       </c>
+      <c r="N67" s="0" t="n">
+        <f aca="false">K67/J67</f>
+        <v>0.0826776027858198</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <f aca="false">M67/L67</f>
+        <v>0.146484662576687</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>208.547</v>
@@ -3598,10 +4138,18 @@
       <c r="M68" s="0" t="n">
         <v>0.0036563</v>
       </c>
+      <c r="N68" s="0" t="n">
+        <f aca="false">K68/J68</f>
+        <v>0.090775525875958</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <f aca="false">M68/L68</f>
+        <v>0.185598984771574</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>211.445</v>
@@ -3639,10 +4187,18 @@
       <c r="M69" s="0" t="n">
         <v>0.0048725</v>
       </c>
+      <c r="N69" s="0" t="n">
+        <f aca="false">K69/J69</f>
+        <v>0.145639623930818</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <f aca="false">M69/L69</f>
+        <v>0.177181818181818</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>213.448</v>
@@ -3680,10 +4236,18 @@
       <c r="M70" s="0" t="n">
         <v>0.0088729</v>
       </c>
+      <c r="N70" s="0" t="n">
+        <f aca="false">K70/J70</f>
+        <v>0.230145340201447</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <f aca="false">M70/L70</f>
+        <v>0.252789173789174</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>217.463</v>
@@ -3721,10 +4285,18 @@
       <c r="M71" s="0" t="n">
         <v>0.0127864</v>
       </c>
+      <c r="N71" s="0" t="n">
+        <f aca="false">K71/J71</f>
+        <v>0.266234531526223</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <f aca="false">M71/L71</f>
+        <v>0.307365384615385</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>218.877</v>
@@ -3762,10 +4334,18 @@
       <c r="M72" s="0" t="n">
         <v>0.0149656</v>
       </c>
+      <c r="N72" s="0" t="n">
+        <f aca="false">K72/J72</f>
+        <v>0.315777930143274</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <f aca="false">M72/L72</f>
+        <v>0.322534482758621</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>211.398</v>
@@ -3803,10 +4383,18 @@
       <c r="M73" s="0" t="n">
         <v>0.0242371</v>
       </c>
+      <c r="N73" s="0" t="n">
+        <f aca="false">K73/J73</f>
+        <v>0.243495004968717</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <f aca="false">M73/L73</f>
+        <v>0.44147723132969</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>212.495</v>
@@ -3844,10 +4432,18 @@
       <c r="M74" s="0" t="n">
         <v>0.0209061</v>
       </c>
+      <c r="N74" s="0" t="n">
+        <f aca="false">K74/J74</f>
+        <v>0.231730360989826</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <f aca="false">M74/L74</f>
+        <v>0.317239757207891</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>214.79</v>
@@ -3885,10 +4481,18 @@
       <c r="M75" s="0" t="n">
         <v>0.0291015</v>
       </c>
+      <c r="N75" s="0" t="n">
+        <f aca="false">K75/J75</f>
+        <v>0.269261674444479</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <f aca="false">M75/L75</f>
+        <v>0.37071974522293</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>215.861</v>
@@ -3926,10 +4530,18 @@
       <c r="M76" s="0" t="n">
         <v>0.032115</v>
       </c>
+      <c r="N76" s="0" t="n">
+        <f aca="false">K76/J76</f>
+        <v>0.250939791309632</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <f aca="false">M76/L76</f>
+        <v>0.377823529411765</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>217.347</v>
@@ -3967,10 +4579,18 @@
       <c r="M77" s="0" t="n">
         <v>0.0362967</v>
       </c>
+      <c r="N77" s="0" t="n">
+        <f aca="false">K77/J77</f>
+        <v>0.262872465485917</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <f aca="false">M77/L77</f>
+        <v>0.415769759450172</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>217.353</v>
@@ -4008,10 +4628,18 @@
       <c r="M78" s="0" t="n">
         <v>0.0309204</v>
       </c>
+      <c r="N78" s="0" t="n">
+        <f aca="false">K78/J78</f>
+        <v>0.218416943551755</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <f aca="false">M78/L78</f>
+        <v>0.352972602739726</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>217.199</v>
@@ -4049,10 +4677,18 @@
       <c r="M79" s="0" t="n">
         <v>0.0309283</v>
       </c>
+      <c r="N79" s="0" t="n">
+        <f aca="false">K79/J79</f>
+        <v>0.19312025107367</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <f aca="false">M79/L79</f>
+        <v>0.352660205245154</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>218.275</v>
@@ -4090,10 +4726,18 @@
       <c r="M80" s="0" t="n">
         <v>0.030194</v>
       </c>
+      <c r="N80" s="0" t="n">
+        <f aca="false">K80/J80</f>
+        <v>0.177459693499687</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <f aca="false">M80/L80</f>
+        <v>0.351093023255814</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>220.472</v>
@@ -4131,10 +4775,18 @@
       <c r="M81" s="0" t="n">
         <v>0.0276884</v>
       </c>
+      <c r="N81" s="0" t="n">
+        <f aca="false">K81/J81</f>
+        <v>0.19287883141235</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <f aca="false">M81/L81</f>
+        <v>0.347844221105528</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>223.044</v>
@@ -4172,10 +4824,18 @@
       <c r="M82" s="0" t="n">
         <v>0.0238724</v>
       </c>
+      <c r="N82" s="0" t="n">
+        <f aca="false">K82/J82</f>
+        <v>0.165295791229275</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <f aca="false">M82/L82</f>
+        <v>0.315772486772487</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>224.841</v>
@@ -4213,10 +4873,18 @@
       <c r="M83" s="0" t="n">
         <v>0.0205011</v>
       </c>
+      <c r="N83" s="0" t="n">
+        <f aca="false">K83/J83</f>
+        <v>0.158581476686441</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <f aca="false">M83/L83</f>
+        <v>0.28915514809591</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>226.676</v>
@@ -4254,10 +4922,18 @@
       <c r="M84" s="0" t="n">
         <v>0.0177614</v>
       </c>
+      <c r="N84" s="0" t="n">
+        <f aca="false">K84/J84</f>
+        <v>0.146499645334174</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <f aca="false">M84/L84</f>
+        <v>0.266687687687688</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>227.145</v>
@@ -4295,10 +4971,18 @@
       <c r="M85" s="0" t="n">
         <v>0.0159348</v>
       </c>
+      <c r="N85" s="0" t="n">
+        <f aca="false">K85/J85</f>
+        <v>0.134015877578124</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <f aca="false">M85/L85</f>
+        <v>0.260372549019608</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>228.866</v>
@@ -4336,10 +5020,18 @@
       <c r="M86" s="0" t="n">
         <v>0.0138292</v>
       </c>
+      <c r="N86" s="0" t="n">
+        <f aca="false">K86/J86</f>
+        <v>0.135214726356336</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <f aca="false">M86/L86</f>
+        <v>0.252357664233577</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>228.626</v>
@@ -4377,10 +5069,18 @@
       <c r="M87" s="0" t="n">
         <v>0.01185</v>
       </c>
+      <c r="N87" s="0" t="n">
+        <f aca="false">K87/J87</f>
+        <v>0.119147877498854</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <f aca="false">M87/L87</f>
+        <v>0.237</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>231.104</v>
@@ -4418,10 +5118,18 @@
       <c r="M88" s="0" t="n">
         <v>0.0102419</v>
       </c>
+      <c r="N88" s="0" t="n">
+        <f aca="false">K88/J88</f>
+        <v>0.162926666029257</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <f aca="false">M88/L88</f>
+        <v>0.222167028199566</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>231.165</v>
@@ -4459,10 +5167,18 @@
       <c r="M89" s="0" t="n">
         <v>0.0084706</v>
       </c>
+      <c r="N89" s="0" t="n">
+        <f aca="false">K89/J89</f>
+        <v>0.104501665002174</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <f aca="false">M89/L89</f>
+        <v>0.204603864734299</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>232.245</v>
@@ -4500,10 +5216,18 @@
       <c r="M90" s="0" t="n">
         <v>0.0075914</v>
       </c>
+      <c r="N90" s="0" t="n">
+        <f aca="false">K90/J90</f>
+        <v>0.0943003467433497</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <f aca="false">M90/L90</f>
+        <v>0.207415300546448</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>232.583</v>
@@ -4541,10 +5265,18 @@
       <c r="M91" s="0" t="n">
         <v>0.0056991</v>
       </c>
+      <c r="N91" s="0" t="n">
+        <f aca="false">K91/J91</f>
+        <v>0.0806466307378465</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <f aca="false">M91/L91</f>
+        <v>0.173224924012158</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>233.773</v>
@@ -4582,10 +5314,18 @@
       <c r="M92" s="0" t="n">
         <v>0.0042278</v>
       </c>
+      <c r="N92" s="0" t="n">
+        <f aca="false">K92/J92</f>
+        <v>0.0554792697225433</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <f aca="false">M92/L92</f>
+        <v>0.149921985815603</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>234.697</v>
@@ -4623,10 +5363,18 @@
       <c r="M93" s="0" t="n">
         <v>0.0029513</v>
       </c>
+      <c r="N93" s="0" t="n">
+        <f aca="false">K93/J93</f>
+        <v>0.0557262142773139</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <f aca="false">M93/L93</f>
+        <v>0.119485829959514</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>235.79</v>
@@ -4664,10 +5412,18 @@
       <c r="M94" s="0" t="n">
         <v>0.003138</v>
       </c>
+      <c r="N94" s="0" t="n">
+        <f aca="false">K94/J94</f>
+        <v>0.0472406325530728</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <f aca="false">M94/L94</f>
+        <v>0.142636363636364</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>237.348</v>
@@ -4705,10 +5461,18 @@
       <c r="M95" s="0" t="n">
         <v>0.0024405</v>
       </c>
+      <c r="N95" s="0" t="n">
+        <f aca="false">K95/J95</f>
+        <v>0.039243784673704</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <f aca="false">M95/L95</f>
+        <v>0.125153846153846</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>237.626</v>
@@ -4746,10 +5510,18 @@
       <c r="M96" s="0" t="n">
         <v>0.0018983</v>
       </c>
+      <c r="N96" s="0" t="n">
+        <f aca="false">K96/J96</f>
+        <v>0.0369697785870911</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <f aca="false">M96/L96</f>
+        <v>0.107248587570621</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>236.284</v>
@@ -4787,10 +5559,18 @@
       <c r="M97" s="0" t="n">
         <v>0.0013482</v>
       </c>
+      <c r="N97" s="0" t="n">
+        <f aca="false">K97/J97</f>
+        <v>0.0361865815289234</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <f aca="false">M97/L97</f>
+        <v>0.0853291139240506</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>235.989</v>
@@ -4828,10 +5608,18 @@
       <c r="M98" s="0" t="n">
         <v>0.0024</v>
       </c>
+      <c r="N98" s="0" t="n">
+        <f aca="false">K98/J98</f>
+        <v>0.043338683788122</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <f aca="false">M98/L98</f>
+        <v>0.170212765957447</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>237.419</v>
@@ -4870,12 +5658,17 @@
         <v>0.0003</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>0.0003</v>
+        <f aca="false">K99/J99</f>
+        <v>0.0362068965517241</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <f aca="false">M99/L99</f>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>237.467</v>
@@ -4914,12 +5707,17 @@
         <v>0.0001</v>
       </c>
       <c r="N100" s="0" t="n">
-        <v>-0.0008</v>
+        <f aca="false">K100/J100</f>
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <f aca="false">M100/L100</f>
+        <v>0.00862068965517241</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>237.846</v>
@@ -4958,12 +5756,17 @@
         <v>0.0001</v>
       </c>
       <c r="N101" s="0" t="n">
-        <v>-0.0006</v>
+        <f aca="false">K101/J101</f>
+        <v>0.0392927308447937</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <f aca="false">M101/L101</f>
+        <v>0.00943396226415094</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>238.078</v>
@@ -5002,12 +5805,17 @@
         <v>0.0001</v>
       </c>
       <c r="N102" s="0" t="n">
-        <v>-0.0001</v>
+        <f aca="false">K102/J102</f>
+        <v>0.027027027027027</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <f aca="false">M102/L102</f>
+        <v>0.0103092783505155</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>239.842</v>
@@ -5046,12 +5854,17 @@
         <v>0.0001</v>
       </c>
       <c r="N103" s="0" t="n">
-        <v>-0.0001</v>
+        <f aca="false">K103/J103</f>
+        <v>0.0240700218818381</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <f aca="false">M103/L103</f>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>241.006</v>
@@ -5090,12 +5903,17 @@
         <v>0.0002</v>
       </c>
       <c r="N104" s="0" t="n">
-        <v>0.0002</v>
+        <f aca="false">K104/J104</f>
+        <v>0.0229357798165138</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <f aca="false">M104/L104</f>
+        <v>0.0229885057471264</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>242.821</v>
@@ -5134,7 +5952,12 @@
         <v>0.0001</v>
       </c>
       <c r="N105" s="0" t="n">
-        <v>0.0001</v>
+        <f aca="false">K105/J105</f>
+        <v>0.0168674698795181</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <f aca="false">M105/L105</f>
+        <v>0.0117647058823529</v>
       </c>
     </row>
   </sheetData>
@@ -5155,8 +5978,8 @@
   </sheetPr>
   <dimension ref="A2:B97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H3:H105 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6138,8 +6961,8 @@
   </sheetPr>
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="H3:H105 B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6149,10 +6972,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6939,8 +7762,8 @@
   </sheetPr>
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="H3:H105 B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6950,19 +7773,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">VAR('HPIc comp'!B3:B78)</f>
         <v>0.0014725543108307</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">SQRT(B3)</f>
@@ -6971,7 +7794,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.96</v>
@@ -6979,7 +7802,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -7103,7 +7926,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">$B$4^B6</f>
@@ -7228,7 +8051,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">B7/SUM($B$7:$AE$7)</f>
@@ -7353,7 +8176,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">$B$3*B6*B8</f>
@@ -7478,7 +8301,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">SUM(B9:AE9)</f>
@@ -7487,7 +8310,7 @@
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2" t="n">
         <f aca="false">SQRT(B10)</f>
@@ -7496,19 +8319,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">VAR('HPIr comp'!B:B)</f>
         <v>0.000254469046942981</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">SQRT(B15)</f>
@@ -7517,7 +8340,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.96</v>
@@ -7525,7 +8348,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -7649,7 +8472,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">$B$16^B18</f>
@@ -7774,7 +8597,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">B19/SUM($B$7:$AE$7)</f>
@@ -7899,7 +8722,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">$B$15*B18*B20</f>
@@ -8024,7 +8847,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">SUM(B21:AE21)</f>
@@ -8033,7 +8856,7 @@
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="n">
         <f aca="false">SQRT(B22)</f>
@@ -8058,8 +8881,8 @@
   </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8074,21 +8897,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">SUM(E:E)</f>
@@ -8155,7 +8978,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">SUM(G:G)</f>
@@ -8222,7 +9045,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">Input!A8</f>
@@ -8245,7 +9068,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">Input!A9</f>
@@ -8268,7 +9091,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">Input!A10</f>
@@ -8311,7 +9134,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">Input!A12</f>
@@ -8334,7 +9157,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C13" s="0" t="str">
         <f aca="false">Input!A13</f>
@@ -8357,7 +9180,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C14" s="0" t="str">
         <f aca="false">Input!A14</f>
@@ -8380,7 +9203,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C15" s="0" t="str">
         <f aca="false">Input!A15</f>
@@ -8403,7 +9226,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C16" s="0" t="str">
         <f aca="false">Input!A16</f>
@@ -10222,8 +11045,8 @@
   </sheetPr>
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H3:H105 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10233,10 +11056,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11297,8 +12120,8 @@
   </sheetPr>
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L58" activeCellId="1" sqref="H3:H105 L58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11339,16 +12162,16 @@
         <v>FEDR</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/work/preprocess.xlsx
+++ b/work/preprocess.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input - history" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Input - forecasts" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Input - forecast" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="HPIr comp" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="HPIc comp" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="rhos computation" sheetId="5" state="visible" r:id="rId6"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
   <si>
     <t xml:space="preserve">obs</t>
   </si>
@@ -415,6 +415,18 @@
     <t xml:space="preserve">2016Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2017Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017Q4</t>
+  </si>
+  <si>
     <t xml:space="preserve">log</t>
   </si>
   <si>
@@ -503,18 +515,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017Q4</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6000,10 +6000,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6040,13 +6040,113 @@
         <f aca="false">'Input - history'!G1</f>
         <v>HPIr</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">'Input - history'!H1</f>
-        <v>HPIc</v>
-      </c>
       <c r="I1" s="2" t="str">
         <f aca="false">'Input - history'!I1</f>
         <v>FEDR</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>242.821</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>16889.1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>16266.8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>104.438</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>185.54</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>242.821</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>16889.1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>16266.8</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>104.438</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>185.54</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>242.821</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>16889.1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>16266.8</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>104.438</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>185.54</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>242.821</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>16889.1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16266.8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>104.438</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>185.54</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -7061,10 +7161,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,19 +7962,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">VAR('HPIc comp'!B3:B78)</f>
         <v>0.0014725543108307</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">SQRT(B3)</f>
@@ -7883,7 +7983,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.96</v>
@@ -7891,7 +7991,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -8015,7 +8115,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">$B$4^B6</f>
@@ -8140,7 +8240,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">B7/SUM($B$7:$AE$7)</f>
@@ -8265,7 +8365,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">$B$3*B6*B8</f>
@@ -8390,7 +8490,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">SUM(B9:AE9)</f>
@@ -8399,7 +8499,7 @@
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="n">
         <f aca="false">SQRT(B10)</f>
@@ -8408,19 +8508,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">VAR('HPIr comp'!B:B)</f>
         <v>0.000254469046942981</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">SQRT(B15)</f>
@@ -8429,7 +8529,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.96</v>
@@ -8437,7 +8537,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -8561,7 +8661,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">$B$16^B18</f>
@@ -8686,7 +8786,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">B19/SUM($B$7:$AE$7)</f>
@@ -8811,7 +8911,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">$B$15*B18*B20</f>
@@ -8936,7 +9036,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">SUM(B21:AE21)</f>
@@ -8945,7 +9045,7 @@
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2" t="n">
         <f aca="false">SQRT(B22)</f>
@@ -8986,21 +9086,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">SUM(E:E)</f>
@@ -9067,7 +9167,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">SUM(G:G)</f>
@@ -9134,7 +9234,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">'Input - history'!A8</f>
@@ -9157,7 +9257,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">'Input - history'!A9</f>
@@ -9180,7 +9280,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">'Input - history'!A10</f>
@@ -9223,7 +9323,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">'Input - history'!A12</f>
@@ -9246,7 +9346,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C13" s="0" t="str">
         <f aca="false">'Input - history'!A13</f>
@@ -9269,7 +9369,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C14" s="0" t="str">
         <f aca="false">'Input - history'!A14</f>
@@ -9292,7 +9392,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C15" s="0" t="str">
         <f aca="false">'Input - history'!A15</f>
@@ -9315,7 +9415,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C16" s="0" t="str">
         <f aca="false">'Input - history'!A16</f>
@@ -11132,10 +11232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11145,10 +11245,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12188,6 +12288,46 @@
       </c>
       <c r="B105" s="0" t="n">
         <f aca="false">'Input - history'!$B$105/'Input - history'!B105</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="str">
+        <f aca="false">'Input - forecast'!A2</f>
+        <v>2017Q1</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <f aca="false">'Input - history'!$B$105/'Input - forecast'!B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="str">
+        <f aca="false">'Input - forecast'!A3</f>
+        <v>2017Q2</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <f aca="false">'Input - history'!$B$105/'Input - forecast'!B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="str">
+        <f aca="false">'Input - forecast'!A4</f>
+        <v>2017Q3</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <f aca="false">'Input - history'!$B$105/'Input - forecast'!B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="str">
+        <f aca="false">'Input - forecast'!A5</f>
+        <v>2017Q4</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <f aca="false">'Input - history'!$B$105/'Input - forecast'!B5</f>
         <v>1</v>
       </c>
     </row>
@@ -12209,8 +12349,8 @@
   </sheetPr>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12251,16 +12391,16 @@
         <v>FEDR</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17465,199 +17605,147 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B106" s="3" t="n">
-        <f aca="false">B105</f>
+        <f aca="false">IF('Input - forecast'!C2="","",LN('Input - forecast'!C2))</f>
         <v>9.73442372241407</v>
       </c>
       <c r="C106" s="3" t="n">
-        <f aca="false">C105</f>
+        <f aca="false">IF('Input - forecast'!D2="","",LN('Input - forecast'!D2))</f>
         <v>9.69688149986085</v>
       </c>
       <c r="D106" s="3" t="n">
-        <f aca="false">D105</f>
+        <f aca="false">IF('Input - forecast'!E2="","",LN('Input - forecast'!E2))</f>
         <v>1.54756250871601</v>
       </c>
       <c r="E106" s="3" t="n">
-        <f aca="false">E105</f>
+        <f aca="false">IF('Input - forecast'!F2="","",LN('Input - forecast'!F2*Escsount!$B106))</f>
         <v>4.64859359389652</v>
       </c>
       <c r="F106" s="3" t="n">
-        <f aca="false">F105</f>
+        <f aca="false">IF('Input - forecast'!G2="","",LN('Input - forecast'!G2))</f>
         <v>5.22327049222513</v>
       </c>
-      <c r="G106" s="3" t="n">
-        <f aca="false">G105</f>
-        <v>4.84149154470074</v>
+      <c r="G106" s="3" t="str">
+        <f aca="false">IF('Input - forecast'!H2="","",LN('Input - forecast'!H2*Escsount!$B106))</f>
+        <v/>
       </c>
       <c r="H106" s="3" t="n">
-        <f aca="false">H105</f>
+        <f aca="false">IF('Input - forecast'!I2="","",'Input - forecast'!I2)</f>
         <v>0.54</v>
-      </c>
-      <c r="I106" s="3" t="n">
-        <f aca="false">I105</f>
-        <v>1.7335385038418</v>
-      </c>
-      <c r="J106" s="3" t="n">
-        <f aca="false">J105</f>
-        <v>0.0110340402922172</v>
-      </c>
-      <c r="K106" s="3" t="n">
-        <f aca="false">K105</f>
-        <v>2.38670773449225</v>
-      </c>
-      <c r="L106" s="3" t="n">
-        <f aca="false">L105</f>
-        <v>0.128532745950033</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B107" s="3" t="n">
-        <f aca="false">B106</f>
+        <f aca="false">IF('Input - forecast'!C3="","",LN('Input - forecast'!C3))</f>
         <v>9.73442372241407</v>
       </c>
       <c r="C107" s="3" t="n">
-        <f aca="false">C106</f>
+        <f aca="false">IF('Input - forecast'!D3="","",LN('Input - forecast'!D3))</f>
         <v>9.69688149986085</v>
       </c>
       <c r="D107" s="3" t="n">
-        <f aca="false">D106</f>
+        <f aca="false">IF('Input - forecast'!E3="","",LN('Input - forecast'!E3))</f>
         <v>1.54756250871601</v>
       </c>
       <c r="E107" s="3" t="n">
-        <f aca="false">E106</f>
+        <f aca="false">IF('Input - forecast'!F3="","",LN('Input - forecast'!F3*Escsount!$B107))</f>
         <v>4.64859359389652</v>
       </c>
       <c r="F107" s="3" t="n">
-        <f aca="false">F106</f>
+        <f aca="false">IF('Input - forecast'!G3="","",LN('Input - forecast'!G3))</f>
         <v>5.22327049222513</v>
       </c>
-      <c r="G107" s="3" t="n">
-        <f aca="false">G106</f>
-        <v>4.84149154470074</v>
+      <c r="G107" s="3" t="str">
+        <f aca="false">IF('Input - forecast'!H3="","",LN('Input - forecast'!H3*Escsount!$B107))</f>
+        <v/>
       </c>
       <c r="H107" s="3" t="n">
-        <f aca="false">H106</f>
+        <f aca="false">IF('Input - forecast'!I3="","",'Input - forecast'!I3)</f>
         <v>0.54</v>
       </c>
-      <c r="I107" s="3" t="n">
-        <f aca="false">I106</f>
-        <v>1.7335385038418</v>
-      </c>
-      <c r="J107" s="3" t="n">
-        <f aca="false">J106</f>
-        <v>0.0110340402922172</v>
-      </c>
-      <c r="K107" s="3" t="n">
-        <f aca="false">K106</f>
-        <v>2.38670773449225</v>
-      </c>
-      <c r="L107" s="3" t="n">
-        <f aca="false">L106</f>
-        <v>0.128532745950033</v>
-      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3" t="n">
-        <f aca="false">B107</f>
+        <f aca="false">IF('Input - forecast'!C4="","",LN('Input - forecast'!C4))</f>
         <v>9.73442372241407</v>
       </c>
       <c r="C108" s="3" t="n">
-        <f aca="false">C107</f>
+        <f aca="false">IF('Input - forecast'!D4="","",LN('Input - forecast'!D4))</f>
         <v>9.69688149986085</v>
       </c>
       <c r="D108" s="3" t="n">
-        <f aca="false">D107</f>
+        <f aca="false">IF('Input - forecast'!E4="","",LN('Input - forecast'!E4))</f>
         <v>1.54756250871601</v>
       </c>
       <c r="E108" s="3" t="n">
-        <f aca="false">E107</f>
+        <f aca="false">IF('Input - forecast'!F4="","",LN('Input - forecast'!F4*Escsount!$B108))</f>
         <v>4.64859359389652</v>
       </c>
       <c r="F108" s="3" t="n">
-        <f aca="false">F107</f>
+        <f aca="false">IF('Input - forecast'!G4="","",LN('Input - forecast'!G4))</f>
         <v>5.22327049222513</v>
       </c>
-      <c r="G108" s="3" t="n">
-        <f aca="false">G107</f>
-        <v>4.84149154470074</v>
+      <c r="G108" s="3" t="str">
+        <f aca="false">IF('Input - forecast'!H4="","",LN('Input - forecast'!H4*Escsount!$B108))</f>
+        <v/>
       </c>
       <c r="H108" s="3" t="n">
-        <f aca="false">H107</f>
+        <f aca="false">IF('Input - forecast'!I4="","",'Input - forecast'!I4)</f>
         <v>0.54</v>
       </c>
-      <c r="I108" s="3" t="n">
-        <f aca="false">I107</f>
-        <v>1.7335385038418</v>
-      </c>
-      <c r="J108" s="3" t="n">
-        <f aca="false">J107</f>
-        <v>0.0110340402922172</v>
-      </c>
-      <c r="K108" s="3" t="n">
-        <f aca="false">K107</f>
-        <v>2.38670773449225</v>
-      </c>
-      <c r="L108" s="3" t="n">
-        <f aca="false">L107</f>
-        <v>0.128532745950033</v>
-      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B109" s="3" t="n">
-        <f aca="false">B108</f>
+        <f aca="false">IF('Input - forecast'!C5="","",LN('Input - forecast'!C5))</f>
         <v>9.73442372241407</v>
       </c>
       <c r="C109" s="3" t="n">
-        <f aca="false">C108</f>
+        <f aca="false">IF('Input - forecast'!D5="","",LN('Input - forecast'!D5))</f>
         <v>9.69688149986085</v>
       </c>
       <c r="D109" s="3" t="n">
-        <f aca="false">D108</f>
+        <f aca="false">IF('Input - forecast'!E5="","",LN('Input - forecast'!E5))</f>
         <v>1.54756250871601</v>
       </c>
       <c r="E109" s="3" t="n">
-        <f aca="false">E108</f>
+        <f aca="false">IF('Input - forecast'!F5="","",LN('Input - forecast'!F5*Escsount!$B109))</f>
         <v>4.64859359389652</v>
       </c>
       <c r="F109" s="3" t="n">
-        <f aca="false">F108</f>
+        <f aca="false">IF('Input - forecast'!G5="","",LN('Input - forecast'!G5))</f>
         <v>5.22327049222513</v>
       </c>
-      <c r="G109" s="3" t="n">
-        <f aca="false">G108</f>
-        <v>4.84149154470074</v>
+      <c r="G109" s="3" t="str">
+        <f aca="false">IF('Input - forecast'!H5="","",LN('Input - forecast'!H5*Escsount!$B109))</f>
+        <v/>
       </c>
       <c r="H109" s="3" t="n">
-        <f aca="false">H108</f>
+        <f aca="false">IF('Input - forecast'!I5="","",'Input - forecast'!I5)</f>
         <v>0.54</v>
       </c>
-      <c r="I109" s="3" t="n">
-        <f aca="false">I108</f>
-        <v>1.7335385038418</v>
-      </c>
-      <c r="J109" s="3" t="n">
-        <f aca="false">J108</f>
-        <v>0.0110340402922172</v>
-      </c>
-      <c r="K109" s="3" t="n">
-        <f aca="false">K108</f>
-        <v>2.38670773449225</v>
-      </c>
-      <c r="L109" s="3" t="n">
-        <f aca="false">L108</f>
-        <v>0.128532745950033</v>
-      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/work/preprocess.xlsx
+++ b/work/preprocess.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input - history" sheetId="1" state="visible" r:id="rId2"/>
@@ -793,7 +793,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,6 +807,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -907,7 +911,7 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6002,8 +6006,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6050,103 +6054,111 @@
         <v>119</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>242.821</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>16889.1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>16266.8</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <f aca="false">'Input - history'!B105*POWER(1.02,0.25)</f>
+        <v>244.026104007537</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>17389.5893614399</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>16910.1451555162</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>4.7</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>104.438</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>185.54</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.54</v>
+      <c r="F2" s="3" t="n">
+        <v>107.142621556106</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>242.821</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>16889.1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>16266.8</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="B3" s="4" t="n">
+        <f aca="false">B2*POWER(1.02,0.25)</f>
+        <v>245.237188863802</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>18304.2039281615</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>17445.2584168302</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>4.7</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>104.438</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>185.54</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.54</v>
+      <c r="F3" s="3" t="n">
+        <v>109.037184023259</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>242.821</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>16889.1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>16266.8</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>104.438</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>185.54</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.54</v>
+      <c r="B4" s="4" t="n">
+        <f aca="false">B3*POWER(1.02,0.25)</f>
+        <v>246.454284251338</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>19224.8783272874</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>17981.5285543781</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>111.625264272018</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>242.821</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>16889.1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16266.8</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>104.438</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>185.54</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.54</v>
+      <c r="B5" s="4" t="n">
+        <f aca="false">B4*POWER(1.02,0.25)</f>
+        <v>247.67742</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>20147.0726254158</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>19070.2140023921</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>115.643364605662</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -11235,7 +11247,7 @@
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+      <selection pane="topLeft" activeCell="B108" activeCellId="0" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12298,7 +12310,7 @@
       </c>
       <c r="B106" s="0" t="n">
         <f aca="false">'Input - history'!$B$105/'Input - forecast'!B2</f>
-        <v>1</v>
+        <v>0.995061577479843</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12308,7 +12320,7 @@
       </c>
       <c r="B107" s="0" t="n">
         <f aca="false">'Input - history'!$B$105/'Input - forecast'!B3</f>
-        <v>1</v>
+        <v>0.990147542976674</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12318,7 +12330,7 @@
       </c>
       <c r="B108" s="0" t="n">
         <f aca="false">'Input - history'!$B$105/'Input - forecast'!B4</f>
-        <v>1</v>
+        <v>0.98525777605216</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12328,7 +12340,7 @@
       </c>
       <c r="B109" s="0" t="n">
         <f aca="false">'Input - history'!$B$105/'Input - forecast'!B5</f>
-        <v>1</v>
+        <v>0.980392156862745</v>
       </c>
     </row>
   </sheetData>
@@ -12349,8 +12361,8 @@
   </sheetPr>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17609,31 +17621,31 @@
       </c>
       <c r="B106" s="3" t="n">
         <f aca="false">IF('Input - forecast'!C2="","",LN('Input - forecast'!C2))</f>
-        <v>9.73442372241407</v>
+        <v>9.76362699358131</v>
       </c>
       <c r="C106" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!D2="","",LN('Input - forecast'!D2))</f>
-        <v>9.69688149986085</v>
+        <f aca="false">IF('Input - forecast'!D2="","",LN('Input - forecast'!D2)*Escsount!$B106)</f>
+        <v>9.68759017869419</v>
       </c>
       <c r="D106" s="3" t="n">
         <f aca="false">IF('Input - forecast'!E2="","",LN('Input - forecast'!E2))</f>
         <v>1.54756250871601</v>
       </c>
       <c r="E106" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!F2="","",LN('Input - forecast'!F2*Escsount!$B106))</f>
-        <v>4.64859359389652</v>
+        <f aca="false">IF('Input - forecast'!F2="","",LN('Input - forecast'!F2)*Escsount!$B106)</f>
+        <v>4.65107787741569</v>
       </c>
       <c r="F106" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!G2="","",LN('Input - forecast'!G2))</f>
-        <v>5.22327049222513</v>
+        <f aca="false">IF('Input - forecast'!G2="","",LN('Input - forecast'!G2)*Escsount!$B106)</f>
+        <v>5.18375950910578</v>
       </c>
       <c r="G106" s="3" t="str">
-        <f aca="false">IF('Input - forecast'!H2="","",LN('Input - forecast'!H2*Escsount!$B106))</f>
+        <f aca="false">IF('Input - forecast'!H2="","",LN('Input - forecast'!H2)*Escsount!$B106)</f>
         <v/>
       </c>
       <c r="H106" s="3" t="n">
         <f aca="false">IF('Input - forecast'!I2="","",'Input - forecast'!I2)</f>
-        <v>0.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17641,32 +17653,32 @@
         <v>120</v>
       </c>
       <c r="B107" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!C3="","",LN('Input - forecast'!C3))</f>
-        <v>9.73442372241407</v>
+        <f aca="false">IF('Input - forecast'!D3="","",LN('Input - forecast'!D3))</f>
+        <v>9.76682316674305</v>
       </c>
       <c r="C107" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!D3="","",LN('Input - forecast'!D3))</f>
-        <v>9.69688149986085</v>
+        <f aca="false">IF('Input - forecast'!D3="","",LN('Input - forecast'!D3)*Escsount!$B107)</f>
+        <v>9.67059596123828</v>
       </c>
       <c r="D107" s="3" t="n">
         <f aca="false">IF('Input - forecast'!E3="","",LN('Input - forecast'!E3))</f>
         <v>1.54756250871601</v>
       </c>
       <c r="E107" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!F3="","",LN('Input - forecast'!F3*Escsount!$B107))</f>
-        <v>4.64859359389652</v>
+        <f aca="false">IF('Input - forecast'!F3="","",LN('Input - forecast'!F3)*Escsount!$B107)</f>
+        <v>4.64546429801917</v>
       </c>
       <c r="F107" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!G3="","",LN('Input - forecast'!G3))</f>
-        <v>5.22327049222513</v>
+        <f aca="false">IF('Input - forecast'!G3="","",LN('Input - forecast'!G3)*Escsount!$B107)</f>
+        <v>5.16355582717774</v>
       </c>
       <c r="G107" s="3" t="str">
-        <f aca="false">IF('Input - forecast'!H3="","",LN('Input - forecast'!H3*Escsount!$B107))</f>
+        <f aca="false">IF('Input - forecast'!H3="","",LN('Input - forecast'!H3)*Escsount!$B107)</f>
         <v/>
       </c>
       <c r="H107" s="3" t="n">
         <f aca="false">IF('Input - forecast'!I3="","",'Input - forecast'!I3)</f>
-        <v>0.54</v>
+        <v>1.25</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -17678,32 +17690,32 @@
         <v>121</v>
       </c>
       <c r="B108" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!C4="","",LN('Input - forecast'!C4))</f>
-        <v>9.73442372241407</v>
+        <f aca="false">IF('Input - forecast'!D4="","",LN('Input - forecast'!D4))</f>
+        <v>9.79710031855995</v>
       </c>
       <c r="C108" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!D4="","",LN('Input - forecast'!D4))</f>
-        <v>9.69688149986085</v>
+        <f aca="false">IF('Input - forecast'!D4="","",LN('Input - forecast'!D4)*Escsount!$B108)</f>
+        <v>9.65266927162429</v>
       </c>
       <c r="D108" s="3" t="n">
         <f aca="false">IF('Input - forecast'!E4="","",LN('Input - forecast'!E4))</f>
-        <v>1.54756250871601</v>
+        <v>1.56861591791385</v>
       </c>
       <c r="E108" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!F4="","",LN('Input - forecast'!F4*Escsount!$B108))</f>
-        <v>4.64859359389652</v>
+        <f aca="false">IF('Input - forecast'!F4="","",LN('Input - forecast'!F4)*Escsount!$B108)</f>
+        <v>4.64563564767581</v>
       </c>
       <c r="F108" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!G4="","",LN('Input - forecast'!G4))</f>
-        <v>5.22327049222513</v>
+        <f aca="false">IF('Input - forecast'!G4="","",LN('Input - forecast'!G4)*Escsount!$B108)</f>
+        <v>5.13805600679672</v>
       </c>
       <c r="G108" s="3" t="str">
-        <f aca="false">IF('Input - forecast'!H4="","",LN('Input - forecast'!H4*Escsount!$B108))</f>
+        <f aca="false">IF('Input - forecast'!H4="","",LN('Input - forecast'!H4)*Escsount!$B108)</f>
         <v/>
       </c>
       <c r="H108" s="3" t="n">
         <f aca="false">IF('Input - forecast'!I4="","",'Input - forecast'!I4)</f>
-        <v>0.54</v>
+        <v>1.25</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -17715,32 +17727,32 @@
         <v>122</v>
       </c>
       <c r="B109" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!C5="","",LN('Input - forecast'!C5))</f>
-        <v>9.73442372241407</v>
+        <f aca="false">IF('Input - forecast'!D5="","",LN('Input - forecast'!D5))</f>
+        <v>9.85588292047131</v>
       </c>
       <c r="C109" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!D5="","",LN('Input - forecast'!D5))</f>
-        <v>9.69688149986085</v>
+        <f aca="false">IF('Input - forecast'!D5="","",LN('Input - forecast'!D5)*Escsount!$B109)</f>
+        <v>9.66263031418755</v>
       </c>
       <c r="D109" s="3" t="n">
         <f aca="false">IF('Input - forecast'!E5="","",LN('Input - forecast'!E5))</f>
-        <v>1.54756250871601</v>
+        <v>1.56861591791385</v>
       </c>
       <c r="E109" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!F5="","",LN('Input - forecast'!F5*Escsount!$B109))</f>
-        <v>4.64859359389652</v>
+        <f aca="false">IF('Input - forecast'!F5="","",LN('Input - forecast'!F5)*Escsount!$B109)</f>
+        <v>4.65736373749268</v>
       </c>
       <c r="F109" s="3" t="n">
-        <f aca="false">IF('Input - forecast'!G5="","",LN('Input - forecast'!G5))</f>
-        <v>5.22327049222513</v>
+        <f aca="false">IF('Input - forecast'!G5="","",LN('Input - forecast'!G5)*Escsount!$B109)</f>
+        <v>5.11799590693953</v>
       </c>
       <c r="G109" s="3" t="str">
-        <f aca="false">IF('Input - forecast'!H5="","",LN('Input - forecast'!H5*Escsount!$B109))</f>
+        <f aca="false">IF('Input - forecast'!H5="","",LN('Input - forecast'!H5)*Escsount!$B109)</f>
         <v/>
       </c>
       <c r="H109" s="3" t="n">
         <f aca="false">IF('Input - forecast'!I5="","",'Input - forecast'!I5)</f>
-        <v>0.54</v>
+        <v>1.5</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
